--- a/Documentos/Tiempo Extra.xlsx
+++ b/Documentos/Tiempo Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KCHAVIRA\Documents\GitHub\Wsp-Frames\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD479876-DBA9-4CFC-BD4E-7C853B544906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19A6B5-6C3B-4E5E-850F-3E589FAED307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Departamento</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Materiales</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Total por falta de Sistema Mes enero</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +151,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -173,7 +185,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -188,15 +200,200 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -204,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,19 +412,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7AE7C4-CD13-4C1B-8581-522CE6888898}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -566,466 +838,634 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="15">
         <f>D2*4</f>
         <v>28</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="31">
         <v>220</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="31">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="31">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="16">
         <f>H2*E2</f>
         <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>32</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
         <v>225</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="11">
         <f t="shared" ref="G3:G5" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H5" si="2">2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I5" si="3">H3*E3</f>
         <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="11">
         <v>850</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="11">
         <f t="shared" si="2"/>
         <v>212.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="18">
         <f t="shared" si="3"/>
         <v>4250</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="32">
         <v>1200</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="32">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="32">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="24">
         <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="26">
         <f>SUM(I2:I5)</f>
         <v>11190</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="15">
         <f>D8*4</f>
         <v>36</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="31">
         <v>250</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="31">
         <f>F8/8</f>
         <v>31.25</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="31">
         <f>2*G8</f>
         <v>62.5</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="16">
         <f>H8*E8</f>
         <v>2250</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <f t="shared" ref="E9:E10" si="4">D9*4</f>
         <v>12</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="11">
         <v>225</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="11">
         <f t="shared" ref="G9:G10" si="5">F9/8</f>
         <v>28.125</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="11">
         <f t="shared" ref="H9:H10" si="6">2*G9</f>
         <v>56.25</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="18">
         <f t="shared" ref="I9:I10" si="7">H9*E9</f>
         <v>675</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22">
+        <v>15</v>
+      </c>
+      <c r="E10" s="22">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
+        <v>60</v>
+      </c>
+      <c r="F10" s="32">
         <v>850</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="32">
         <f t="shared" si="5"/>
         <v>106.25</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="32">
         <f t="shared" si="6"/>
         <v>212.5</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="24">
         <f t="shared" si="7"/>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="26">
         <f>SUM(I8:I10)</f>
-        <v>4625</v>
-      </c>
+        <v>15675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="15">
         <f>D13*4</f>
         <v>20</v>
       </c>
-      <c r="F13" s="3">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="31">
+        <v>220</v>
+      </c>
+      <c r="G13" s="31">
         <f>F13/8</f>
-        <v>2.75</v>
-      </c>
-      <c r="H13" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="H13" s="31">
         <f>2*G13</f>
-        <v>5.5</v>
-      </c>
-      <c r="I13" s="5">
+        <v>55</v>
+      </c>
+      <c r="I13" s="16">
         <f>H13*E13</f>
-        <v>110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <f t="shared" ref="E14:E17" si="8">D14*4</f>
         <v>20</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="11">
         <v>250</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="11">
         <f t="shared" ref="G14:G17" si="9">F14/8</f>
         <v>31.25</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="11">
         <f t="shared" ref="H14:H17" si="10">2*G14</f>
         <v>62.5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="18">
         <f t="shared" ref="I14" si="11">H14*E14</f>
         <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="11">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="11">
         <f t="shared" si="9"/>
         <v>37.5</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="11">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="18">
         <f t="shared" ref="I15:I17" si="12">H15*E15</f>
         <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="F16" s="3">
-        <v>850</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="11">
+        <v>750</v>
+      </c>
+      <c r="G16" s="11">
         <f t="shared" si="9"/>
-        <v>106.25</v>
-      </c>
-      <c r="H16" s="3">
+        <v>93.75</v>
+      </c>
+      <c r="H16" s="11">
         <f t="shared" si="10"/>
-        <v>212.5</v>
-      </c>
-      <c r="I16" s="5">
+        <v>187.5</v>
+      </c>
+      <c r="I16" s="18">
         <f t="shared" si="12"/>
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="22">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="32">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="32">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="32">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="24">
         <f t="shared" si="12"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="26">
         <f>SUM(I13:I17)</f>
-        <v>13410</v>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15">
+        <f>D20*4</f>
+        <v>40</v>
+      </c>
+      <c r="F20" s="31">
+        <v>220</v>
+      </c>
+      <c r="G20" s="31">
+        <f>F20/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H20" s="31">
+        <f>2*G20</f>
+        <v>55</v>
+      </c>
+      <c r="I20" s="16">
+        <f>H20*E20</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" ref="E21:E23" si="13">D21*4</f>
+        <v>40</v>
+      </c>
+      <c r="F21" s="11">
+        <v>300</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" ref="G21:G23" si="14">F21/8</f>
+        <v>37.5</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" ref="H21:H23" si="15">2*G21</f>
+        <v>75</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" ref="I21:I23" si="16">H21*E21</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="11">
+        <v>400</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>850</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" si="14"/>
+        <v>106.25</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="15"/>
+        <v>212.5</v>
+      </c>
+      <c r="I23" s="23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="28">
+        <f>SUM(I20:I23)</f>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
+        <f>SUM(J24,J18,J11,J6)</f>
+        <v>50165</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:D27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Documentos/Tiempo Extra.xlsx
+++ b/Documentos/Tiempo Extra.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KCHAVIRA\Documents\GitHub\Wsp-Frames\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19A6B5-6C3B-4E5E-850F-3E589FAED307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE06BDF-3F4E-4860-8581-45B6D0CF5E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
+    <sheet name="Febrero" sheetId="2" r:id="rId2"/>
+    <sheet name="Marzo" sheetId="3" r:id="rId3"/>
+    <sheet name="Abril" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="22">
   <si>
     <t>Departamento</t>
   </si>
@@ -92,6 +117,15 @@
   <si>
     <t>Total por falta de Sistema Mes enero</t>
   </si>
+  <si>
+    <t>Salarios Fijos</t>
+  </si>
+  <si>
+    <t>Salarios Completos</t>
+  </si>
+  <si>
+    <t>Total por falta de Sistema Mes Marzo</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +171,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +198,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -396,12 +461,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,57 +517,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -493,13 +535,274 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,6 +821,820 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Abril!$E$26:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>261450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12826.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274276.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C894-472F-924B-444D6B184CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1430381872"/>
+        <c:axId val="1430378960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1430381872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1430378960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1430378960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1430381872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC5F860-3238-454D-AC79-5F24D1D38A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7AE7C4-CD13-4C1B-8581-522CE6888898}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -867,110 +1984,110 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19">
         <v>7</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="19">
         <f>D2*4</f>
         <v>28</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="20">
         <v>220</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="20">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="20">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="21">
         <f>H2*E2</f>
         <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="25">
         <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>32</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="26">
         <v>225</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G5" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="11">
-        <f t="shared" ref="H3:H5" si="2">2*G3</f>
+      <c r="H3" s="26">
+        <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="18">
-        <f t="shared" ref="I3:I5" si="3">H3*E3</f>
+      <c r="I3" s="27">
+        <f>H3*E3</f>
         <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25">
         <v>5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="26">
         <v>850</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="26">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="H4" s="11">
-        <f t="shared" si="2"/>
+      <c r="H4" s="26">
+        <f>2*G4</f>
         <v>212.5</v>
       </c>
-      <c r="I4" s="18">
-        <f t="shared" si="3"/>
+      <c r="I4" s="27">
+        <f>H4*E4</f>
         <v>4250</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31">
         <v>3</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -982,11 +2099,11 @@
         <v>150</v>
       </c>
       <c r="H5" s="32">
-        <f t="shared" si="2"/>
+        <f>2*G5</f>
         <v>300</v>
       </c>
-      <c r="I5" s="24">
-        <f t="shared" si="3"/>
+      <c r="I5" s="33">
+        <f>H5*E5</f>
         <v>3600</v>
       </c>
     </row>
@@ -998,11 +2115,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="9">
         <f>SUM(I2:I5)</f>
         <v>11190</v>
       </c>
@@ -1019,95 +2136,95 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
         <v>9</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="37">
         <f>D8*4</f>
         <v>36</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="38">
         <v>250</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="38">
         <f>F8/8</f>
         <v>31.25</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="38">
         <f>2*G8</f>
         <v>62.5</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="39">
         <f>H8*E8</f>
         <v>2250</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
+      <c r="C9" s="42"/>
+      <c r="D9" s="43">
         <v>3</v>
       </c>
-      <c r="E9" s="10">
-        <f t="shared" ref="E9:E10" si="4">D9*4</f>
+      <c r="E9" s="43">
+        <f t="shared" ref="E9:E10" si="2">D9*4</f>
         <v>12</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="44">
         <v>225</v>
       </c>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:G10" si="5">F9/8</f>
+      <c r="G9" s="44">
+        <f t="shared" ref="G9:G10" si="3">F9/8</f>
         <v>28.125</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" ref="H9:H10" si="6">2*G9</f>
+      <c r="H9" s="44">
+        <f>2*G9</f>
         <v>56.25</v>
       </c>
-      <c r="I9" s="18">
-        <f t="shared" ref="I9:I10" si="7">H9*E9</f>
+      <c r="I9" s="45">
+        <f>H9*E9</f>
         <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22">
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
         <v>15</v>
       </c>
-      <c r="E10" s="22">
-        <f t="shared" si="4"/>
+      <c r="E10" s="49">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="50">
         <v>850</v>
       </c>
-      <c r="G10" s="32">
-        <f t="shared" si="5"/>
+      <c r="G10" s="50">
+        <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H10" s="32">
-        <f t="shared" si="6"/>
+      <c r="H10" s="50">
+        <f>2*G10</f>
         <v>212.5</v>
       </c>
-      <c r="I10" s="24">
-        <f t="shared" si="7"/>
+      <c r="I10" s="51">
+        <f>H10*E10</f>
         <v>12750</v>
       </c>
     </row>
@@ -1119,172 +2236,172 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="9">
         <f>SUM(I8:I10)</f>
         <v>15675</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55">
         <v>5</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="55">
         <f>D13*4</f>
         <v>20</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="56">
         <v>220</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="56">
         <f>F13/8</f>
         <v>27.5</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="56">
         <f>2*G13</f>
         <v>55</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="57">
         <f>H13*E13</f>
         <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10">
+      <c r="C14" s="60"/>
+      <c r="D14" s="61">
         <v>5</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" ref="E14:E17" si="8">D14*4</f>
+      <c r="E14" s="61">
+        <f t="shared" ref="E14:E17" si="4">D14*4</f>
         <v>20</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="62">
         <v>250</v>
       </c>
-      <c r="G14" s="11">
-        <f t="shared" ref="G14:G17" si="9">F14/8</f>
+      <c r="G14" s="62">
+        <f t="shared" ref="G14:G17" si="5">F14/8</f>
         <v>31.25</v>
       </c>
-      <c r="H14" s="11">
-        <f t="shared" ref="H14:H17" si="10">2*G14</f>
+      <c r="H14" s="62">
+        <f>2*G14</f>
         <v>62.5</v>
       </c>
-      <c r="I14" s="18">
-        <f t="shared" ref="I14" si="11">H14*E14</f>
+      <c r="I14" s="63">
+        <f>H14*E14</f>
         <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61">
         <v>5</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" si="8"/>
+      <c r="E15" s="61">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="62">
         <v>300</v>
       </c>
-      <c r="G15" s="11">
-        <f t="shared" si="9"/>
+      <c r="G15" s="62">
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="H15" s="11">
-        <f t="shared" si="10"/>
+      <c r="H15" s="62">
+        <f>2*G15</f>
         <v>75</v>
       </c>
-      <c r="I15" s="18">
-        <f t="shared" ref="I15:I17" si="12">H15*E15</f>
+      <c r="I15" s="63">
+        <f>H15*E15</f>
         <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61">
         <v>3</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="8"/>
+      <c r="E16" s="61">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="62">
         <v>750</v>
       </c>
-      <c r="G16" s="11">
-        <f t="shared" si="9"/>
+      <c r="G16" s="62">
+        <f t="shared" si="5"/>
         <v>93.75</v>
       </c>
-      <c r="H16" s="11">
-        <f t="shared" si="10"/>
+      <c r="H16" s="62">
+        <f>2*G16</f>
         <v>187.5</v>
       </c>
-      <c r="I16" s="18">
-        <f t="shared" si="12"/>
+      <c r="I16" s="63">
+        <f>H16*E16</f>
         <v>2250</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22">
+      <c r="C17" s="66"/>
+      <c r="D17" s="67">
         <v>5</v>
       </c>
-      <c r="E17" s="22">
-        <f t="shared" si="8"/>
+      <c r="E17" s="67">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="68">
         <v>1600</v>
       </c>
-      <c r="G17" s="32">
-        <f t="shared" si="9"/>
+      <c r="G17" s="68">
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H17" s="32">
-        <f t="shared" si="10"/>
+      <c r="H17" s="68">
+        <f>2*G17</f>
         <v>400</v>
       </c>
-      <c r="I17" s="24">
-        <f t="shared" si="12"/>
+      <c r="I17" s="69">
+        <f>H17*E17</f>
         <v>8000</v>
       </c>
     </row>
@@ -1296,141 +2413,141 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="25" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="9">
         <f>SUM(I13:I17)</f>
         <v>14100</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73">
         <v>10</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="73">
         <f>D20*4</f>
         <v>40</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="74">
         <v>220</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="74">
         <f>F20/8</f>
         <v>27.5</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="74">
         <f>2*G20</f>
         <v>55</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="75">
         <f>H20*E20</f>
         <v>2200</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10">
+      <c r="C21" s="78"/>
+      <c r="D21" s="79">
         <v>10</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" ref="E21:E23" si="13">D21*4</f>
+      <c r="E21" s="79">
+        <f t="shared" ref="E21:E23" si="6">D21*4</f>
         <v>40</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="80">
         <v>300</v>
       </c>
-      <c r="G21" s="11">
-        <f t="shared" ref="G21:G23" si="14">F21/8</f>
+      <c r="G21" s="80">
+        <f t="shared" ref="G21:G23" si="7">F21/8</f>
         <v>37.5</v>
       </c>
-      <c r="H21" s="11">
-        <f t="shared" ref="H21:H23" si="15">2*G21</f>
+      <c r="H21" s="80">
+        <f>2*G21</f>
         <v>75</v>
       </c>
-      <c r="I21" s="18">
-        <f t="shared" ref="I21:I23" si="16">H21*E21</f>
+      <c r="I21" s="81">
+        <f>H21*E21</f>
         <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10">
+      <c r="C22" s="78"/>
+      <c r="D22" s="79">
         <v>10</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="13"/>
+      <c r="E22" s="79">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="80">
         <v>400</v>
       </c>
-      <c r="G22" s="11">
-        <f t="shared" si="14"/>
+      <c r="G22" s="80">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="H22" s="11">
-        <f t="shared" si="15"/>
+      <c r="H22" s="80">
+        <f>2*G22</f>
         <v>100</v>
       </c>
-      <c r="I22" s="18">
-        <f t="shared" si="16"/>
+      <c r="I22" s="81">
+        <f>H22*E22</f>
         <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22">
+      <c r="C23" s="84"/>
+      <c r="D23" s="85">
         <v>0</v>
       </c>
-      <c r="E23" s="22">
-        <f t="shared" si="13"/>
+      <c r="E23" s="85">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="86">
         <v>850</v>
       </c>
-      <c r="G23" s="32">
-        <f t="shared" si="14"/>
+      <c r="G23" s="86">
+        <f t="shared" si="7"/>
         <v>106.25</v>
       </c>
-      <c r="H23" s="32">
-        <f t="shared" si="15"/>
+      <c r="H23" s="86">
+        <f>2*G23</f>
         <v>212.5</v>
       </c>
-      <c r="I23" s="23">
-        <f t="shared" si="16"/>
+      <c r="I23" s="87">
+        <f>H23*E23</f>
         <v>0</v>
       </c>
     </row>
@@ -1442,31 +2559,2270 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="11">
         <f>SUM(I20:I23)</f>
         <v>9200</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13" cm="1">
+        <f t="array" ref="E26">SUM((31)*(F2:F23))</f>
+        <v>270010</v>
+      </c>
+    </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30">
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>50165</v>
       </c>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13">
+        <f>E26+E27</f>
+        <v>320175</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A27:D27"/>
+  <mergeCells count="3">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC5521-4988-4D0D-A028-B369FE76398F}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E28" sqref="B26:E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19">
+        <v>8</v>
+      </c>
+      <c r="E2" s="19">
+        <f>D2*4</f>
+        <v>32</v>
+      </c>
+      <c r="F2" s="20">
+        <v>220</v>
+      </c>
+      <c r="G2" s="20">
+        <f>F2/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H2" s="20">
+        <f>2*G2</f>
+        <v>55</v>
+      </c>
+      <c r="I2" s="21">
+        <f>H2*E2</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" ref="E3:E5" si="0">D3*4</f>
+        <v>32</v>
+      </c>
+      <c r="F3" s="26">
+        <v>225</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" ref="G3:G5" si="1">F3/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="H3" s="26">
+        <f>2*G3</f>
+        <v>56.25</v>
+      </c>
+      <c r="I3" s="27">
+        <f>H3*E3</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25">
+        <v>8</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F4" s="26">
+        <v>850</v>
+      </c>
+      <c r="G4" s="26">
+        <f t="shared" si="1"/>
+        <v>106.25</v>
+      </c>
+      <c r="H4" s="26">
+        <f>2*G4</f>
+        <v>212.5</v>
+      </c>
+      <c r="I4" s="27">
+        <f>H4*E4</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31">
+        <v>5</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1200</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H5" s="32">
+        <f>2*G5</f>
+        <v>300</v>
+      </c>
+      <c r="I5" s="33">
+        <f>H5*E5</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9">
+        <f>SUM(I2:I5)</f>
+        <v>16360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
+        <v>5</v>
+      </c>
+      <c r="E8" s="37">
+        <f>D8*4</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="38">
+        <v>250</v>
+      </c>
+      <c r="G8" s="38">
+        <f>F8/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="H8" s="38">
+        <f>2*G8</f>
+        <v>62.5</v>
+      </c>
+      <c r="I8" s="39">
+        <f>H8*E8</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43">
+        <v>5</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" ref="E9:E10" si="2">D9*4</f>
+        <v>20</v>
+      </c>
+      <c r="F9" s="44">
+        <v>225</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" ref="G9:G10" si="3">F9/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="H9" s="44">
+        <f>2*G9</f>
+        <v>56.25</v>
+      </c>
+      <c r="I9" s="45">
+        <f>H9*E9</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <v>8</v>
+      </c>
+      <c r="E10" s="49">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="50">
+        <v>850</v>
+      </c>
+      <c r="G10" s="50">
+        <f t="shared" si="3"/>
+        <v>106.25</v>
+      </c>
+      <c r="H10" s="50">
+        <f>2*G10</f>
+        <v>212.5</v>
+      </c>
+      <c r="I10" s="51">
+        <f>H10*E10</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="9">
+        <f>SUM(I8:I10)</f>
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55">
+        <v>6</v>
+      </c>
+      <c r="E13" s="55">
+        <f>D13*4</f>
+        <v>24</v>
+      </c>
+      <c r="F13" s="56">
+        <v>220</v>
+      </c>
+      <c r="G13" s="56">
+        <f>F13/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H13" s="56">
+        <f>2*G13</f>
+        <v>55</v>
+      </c>
+      <c r="I13" s="57">
+        <f>H13*E13</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61">
+        <v>6</v>
+      </c>
+      <c r="E14" s="61">
+        <f t="shared" ref="E14:E17" si="4">D14*4</f>
+        <v>24</v>
+      </c>
+      <c r="F14" s="62">
+        <v>250</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" ref="G14:G17" si="5">F14/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="H14" s="62">
+        <f>2*G14</f>
+        <v>62.5</v>
+      </c>
+      <c r="I14" s="63">
+        <f>H14*E14</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61">
+        <v>6</v>
+      </c>
+      <c r="E15" s="61">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="62">
+        <v>300</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="H15" s="62">
+        <f>2*G15</f>
+        <v>75</v>
+      </c>
+      <c r="I15" s="63">
+        <f>H15*E15</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61">
+        <v>5</v>
+      </c>
+      <c r="E16" s="61">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="62">
+        <v>750</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="5"/>
+        <v>93.75</v>
+      </c>
+      <c r="H16" s="62">
+        <f>2*G16</f>
+        <v>187.5</v>
+      </c>
+      <c r="I16" s="63">
+        <f>H16*E16</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67">
+        <v>1</v>
+      </c>
+      <c r="E17" s="67">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="68">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="68">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="H17" s="68">
+        <f>2*G17</f>
+        <v>400</v>
+      </c>
+      <c r="I17" s="69">
+        <f>H17*E17</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="9">
+        <f>SUM(I13:I17)</f>
+        <v>9970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73">
+        <v>10</v>
+      </c>
+      <c r="E20" s="73">
+        <f>D20*4</f>
+        <v>40</v>
+      </c>
+      <c r="F20" s="74">
+        <v>220</v>
+      </c>
+      <c r="G20" s="74">
+        <f>F20/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H20" s="74">
+        <f>2*G20</f>
+        <v>55</v>
+      </c>
+      <c r="I20" s="75">
+        <f>H20*E20</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79">
+        <v>10</v>
+      </c>
+      <c r="E21" s="79">
+        <f t="shared" ref="E21:E23" si="6">D21*4</f>
+        <v>40</v>
+      </c>
+      <c r="F21" s="80">
+        <v>300</v>
+      </c>
+      <c r="G21" s="80">
+        <f t="shared" ref="G21:G23" si="7">F21/8</f>
+        <v>37.5</v>
+      </c>
+      <c r="H21" s="80">
+        <f>2*G21</f>
+        <v>75</v>
+      </c>
+      <c r="I21" s="81">
+        <f>H21*E21</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79">
+        <v>10</v>
+      </c>
+      <c r="E22" s="79">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="80">
+        <v>400</v>
+      </c>
+      <c r="G22" s="80">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="H22" s="80">
+        <f>2*G22</f>
+        <v>100</v>
+      </c>
+      <c r="I22" s="81">
+        <f>H22*E22</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85">
+        <v>3</v>
+      </c>
+      <c r="E23" s="85">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F23" s="86">
+        <v>850</v>
+      </c>
+      <c r="G23" s="86">
+        <f t="shared" si="7"/>
+        <v>106.25</v>
+      </c>
+      <c r="H23" s="86">
+        <f>2*G23</f>
+        <v>212.5</v>
+      </c>
+      <c r="I23" s="87">
+        <f>H23*E23</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="11">
+        <f>SUM(I20:I23)</f>
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13" cm="1">
+        <f t="array" ref="E26">SUM((28)*(F2:F23))</f>
+        <v>243880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="91"/>
+      <c r="B27" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89">
+        <f>SUM(J24,J18,J11,J6)</f>
+        <v>47255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13">
+        <f>E26+E27</f>
+        <v>291135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B28:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DBE1C-F047-4F19-9C72-4C60A2C4AD9C}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19">
+        <f>D2*4</f>
+        <v>28</v>
+      </c>
+      <c r="F2" s="20">
+        <v>220</v>
+      </c>
+      <c r="G2" s="20">
+        <f>F2/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H2" s="20">
+        <f>2*G2</f>
+        <v>55</v>
+      </c>
+      <c r="I2" s="21">
+        <f>H2*E2</f>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25">
+        <v>7</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" ref="E3" si="0">D3*4</f>
+        <v>28</v>
+      </c>
+      <c r="F3" s="26">
+        <v>225</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" ref="G3" si="1">F3/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="H3" s="26">
+        <f>2*G3</f>
+        <v>56.25</v>
+      </c>
+      <c r="I3" s="27">
+        <f>H3*E3</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E6" si="2">D4*4</f>
+        <v>28</v>
+      </c>
+      <c r="F4" s="26">
+        <v>225</v>
+      </c>
+      <c r="G4" s="26">
+        <f t="shared" ref="G4:G6" si="3">F4/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="H4" s="26">
+        <f>2*G4</f>
+        <v>56.25</v>
+      </c>
+      <c r="I4" s="27">
+        <f>H4*E4</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="26">
+        <v>850</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="3"/>
+        <v>106.25</v>
+      </c>
+      <c r="H5" s="26">
+        <f>2*G5</f>
+        <v>212.5</v>
+      </c>
+      <c r="I5" s="27">
+        <f>H5*E5</f>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31">
+        <v>7</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1200</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="H6" s="32">
+        <f>2*G6</f>
+        <v>300</v>
+      </c>
+      <c r="I6" s="33">
+        <f>H6*E6</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <f>SUM(I2:I6)</f>
+        <v>19040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37">
+        <v>8</v>
+      </c>
+      <c r="E9" s="37">
+        <f>D9*4</f>
+        <v>32</v>
+      </c>
+      <c r="F9" s="38">
+        <v>250</v>
+      </c>
+      <c r="G9" s="38">
+        <f>F9/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="H9" s="38">
+        <f>2*G9</f>
+        <v>62.5</v>
+      </c>
+      <c r="I9" s="39">
+        <f>H9*E9</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43">
+        <v>8</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" ref="E10:E11" si="4">D10*4</f>
+        <v>32</v>
+      </c>
+      <c r="F10" s="44">
+        <v>225</v>
+      </c>
+      <c r="G10" s="44">
+        <f t="shared" ref="G10:G11" si="5">F10/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="H10" s="44">
+        <f>2*G10</f>
+        <v>56.25</v>
+      </c>
+      <c r="I10" s="45">
+        <f>H10*E10</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49">
+        <v>7</v>
+      </c>
+      <c r="E11" s="49">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="50">
+        <v>850</v>
+      </c>
+      <c r="G11" s="50">
+        <f t="shared" si="5"/>
+        <v>106.25</v>
+      </c>
+      <c r="H11" s="50">
+        <f>2*G11</f>
+        <v>212.5</v>
+      </c>
+      <c r="I11" s="51">
+        <f>H11*E11</f>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="9">
+        <f>SUM(I9:I11)</f>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55">
+        <v>7</v>
+      </c>
+      <c r="E14" s="55">
+        <f>D14*4</f>
+        <v>28</v>
+      </c>
+      <c r="F14" s="56">
+        <v>220</v>
+      </c>
+      <c r="G14" s="56">
+        <f>F14/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H14" s="56">
+        <f>2*G14</f>
+        <v>55</v>
+      </c>
+      <c r="I14" s="57">
+        <f>H14*E14</f>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61">
+        <v>7</v>
+      </c>
+      <c r="E15" s="61">
+        <f t="shared" ref="E15:E18" si="6">D15*4</f>
+        <v>28</v>
+      </c>
+      <c r="F15" s="62">
+        <v>250</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" ref="G15:G18" si="7">F15/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="H15" s="62">
+        <f>2*G15</f>
+        <v>62.5</v>
+      </c>
+      <c r="I15" s="63">
+        <f>H15*E15</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61">
+        <v>7</v>
+      </c>
+      <c r="E16" s="61">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="62">
+        <v>300</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="H16" s="62">
+        <f>2*G16</f>
+        <v>75</v>
+      </c>
+      <c r="I16" s="63">
+        <f>H16*E16</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61">
+        <v>7</v>
+      </c>
+      <c r="E17" s="61">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="62">
+        <v>750</v>
+      </c>
+      <c r="G17" s="62">
+        <f t="shared" si="7"/>
+        <v>93.75</v>
+      </c>
+      <c r="H17" s="62">
+        <f>2*G17</f>
+        <v>187.5</v>
+      </c>
+      <c r="I17" s="63">
+        <f>H17*E17</f>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67">
+        <v>3</v>
+      </c>
+      <c r="E18" s="67">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="68">
+        <v>1600</v>
+      </c>
+      <c r="G18" s="68">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="H18" s="68">
+        <f>2*G18</f>
+        <v>400</v>
+      </c>
+      <c r="I18" s="69">
+        <f>H18*E18</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="9">
+        <f>SUM(I14:I18)</f>
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73">
+        <v>8</v>
+      </c>
+      <c r="E21" s="73">
+        <f>D21*4</f>
+        <v>32</v>
+      </c>
+      <c r="F21" s="74">
+        <v>220</v>
+      </c>
+      <c r="G21" s="74">
+        <f>F21/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="H21" s="74">
+        <f>2*G21</f>
+        <v>55</v>
+      </c>
+      <c r="I21" s="75">
+        <f>H21*E21</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79">
+        <v>8</v>
+      </c>
+      <c r="E22" s="79">
+        <f t="shared" ref="E22" si="8">D22*4</f>
+        <v>32</v>
+      </c>
+      <c r="F22" s="80">
+        <v>300</v>
+      </c>
+      <c r="G22" s="80">
+        <f t="shared" ref="G22" si="9">F22/8</f>
+        <v>37.5</v>
+      </c>
+      <c r="H22" s="80">
+        <f>2*G22</f>
+        <v>75</v>
+      </c>
+      <c r="I22" s="81">
+        <f>H22*E22</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79">
+        <v>12</v>
+      </c>
+      <c r="E23" s="79">
+        <f t="shared" ref="E23:E25" si="10">D23*4</f>
+        <v>48</v>
+      </c>
+      <c r="F23" s="80">
+        <v>300</v>
+      </c>
+      <c r="G23" s="80">
+        <f t="shared" ref="G23:G25" si="11">F23/8</f>
+        <v>37.5</v>
+      </c>
+      <c r="H23" s="80">
+        <f>2*G23</f>
+        <v>75</v>
+      </c>
+      <c r="I23" s="81">
+        <f>H23*E23</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79">
+        <v>12</v>
+      </c>
+      <c r="E24" s="79">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="F24" s="80">
+        <v>400</v>
+      </c>
+      <c r="G24" s="80">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="H24" s="80">
+        <f>2*G24</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="81">
+        <f>H24*E24</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85">
+        <v>5</v>
+      </c>
+      <c r="E25" s="85">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F25" s="86">
+        <v>850</v>
+      </c>
+      <c r="G25" s="86">
+        <f t="shared" si="11"/>
+        <v>106.25</v>
+      </c>
+      <c r="H25" s="86">
+        <f>2*G25</f>
+        <v>212.5</v>
+      </c>
+      <c r="I25" s="87">
+        <f>H25*E25</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="11">
+        <f>SUM(I21:I25)</f>
+        <v>16810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13" cm="1">
+        <f t="array" ref="E28">SUM((31)*(F2:F25))</f>
+        <v>286285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="91"/>
+      <c r="B29" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89">
+        <f>SUM(J26,J19,J12,J7)</f>
+        <v>61040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13">
+        <f>E28+E29</f>
+        <v>347325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8581AE50-5B11-446D-B899-0F87E4792975}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="22.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19">
+        <f>SUM(D2:G2)</f>
+        <v>8</v>
+      </c>
+      <c r="I2" s="20">
+        <v>225</v>
+      </c>
+      <c r="J2" s="20">
+        <f t="shared" ref="J2:J5" si="0">I2/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="K2" s="20">
+        <f>2*J2</f>
+        <v>56.25</v>
+      </c>
+      <c r="L2" s="21">
+        <f>K2*H2</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25">
+        <v>5</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25">
+        <f t="shared" ref="H3:H23" si="1">SUM(D3:G3)</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="26">
+        <v>225</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="0"/>
+        <v>28.125</v>
+      </c>
+      <c r="K3" s="26">
+        <f>2*J3</f>
+        <v>56.25</v>
+      </c>
+      <c r="L3" s="27">
+        <f>K3*H3</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="26">
+        <v>850</v>
+      </c>
+      <c r="J4" s="26">
+        <f t="shared" si="0"/>
+        <v>106.25</v>
+      </c>
+      <c r="K4" s="26">
+        <f>2*J4</f>
+        <v>212.5</v>
+      </c>
+      <c r="L4" s="27">
+        <f>K4*H4</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1200</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K5" s="32">
+        <f>2*J5</f>
+        <v>300</v>
+      </c>
+      <c r="L5" s="100">
+        <f>K5*H5</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="9">
+        <f>SUM(L2:L5)</f>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
+        <v>6</v>
+      </c>
+      <c r="E8" s="37">
+        <v>5</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="38">
+        <v>250</v>
+      </c>
+      <c r="J8" s="38">
+        <f>I8/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="K8" s="38">
+        <f>2*J8</f>
+        <v>62.5</v>
+      </c>
+      <c r="L8" s="39">
+        <f>K8*H8</f>
+        <v>687.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43">
+        <v>4</v>
+      </c>
+      <c r="E9" s="43">
+        <v>5</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I9" s="44">
+        <v>225</v>
+      </c>
+      <c r="J9" s="44">
+        <f t="shared" ref="J9:J10" si="2">I9/8</f>
+        <v>28.125</v>
+      </c>
+      <c r="K9" s="44">
+        <f>2*J9</f>
+        <v>56.25</v>
+      </c>
+      <c r="L9" s="45">
+        <f>K9*H9</f>
+        <v>506.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="50">
+        <v>850</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" si="2"/>
+        <v>106.25</v>
+      </c>
+      <c r="K10" s="50">
+        <f>2*J10</f>
+        <v>212.5</v>
+      </c>
+      <c r="L10" s="99">
+        <f>K10*H10</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="9">
+        <f>SUM(L8:L10)</f>
+        <v>1618.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="93"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55">
+        <v>4</v>
+      </c>
+      <c r="E13" s="55">
+        <v>5</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="56">
+        <v>220</v>
+      </c>
+      <c r="J13" s="56">
+        <f>I13/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="K13" s="56">
+        <f>2*J13</f>
+        <v>55</v>
+      </c>
+      <c r="L13" s="57">
+        <f>K13*H13</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61">
+        <v>4</v>
+      </c>
+      <c r="E14" s="61">
+        <v>1</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="62">
+        <v>250</v>
+      </c>
+      <c r="J14" s="62">
+        <f t="shared" ref="J14:J17" si="3">I14/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="K14" s="62">
+        <f>2*J14</f>
+        <v>62.5</v>
+      </c>
+      <c r="L14" s="63">
+        <f>K14*H14</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61">
+        <v>4</v>
+      </c>
+      <c r="E15" s="61">
+        <v>5</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="62">
+        <v>300</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="K15" s="62">
+        <f>2*J15</f>
+        <v>75</v>
+      </c>
+      <c r="L15" s="63">
+        <f>K15*H15</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61">
+        <v>4</v>
+      </c>
+      <c r="E16" s="61">
+        <v>5</v>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="62">
+        <v>750</v>
+      </c>
+      <c r="J16" s="62">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+      <c r="K16" s="62">
+        <f>2*J16</f>
+        <v>187.5</v>
+      </c>
+      <c r="L16" s="63">
+        <f>K16*H16</f>
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67">
+        <v>2</v>
+      </c>
+      <c r="E17" s="67">
+        <v>5</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I17" s="68">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="68">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K17" s="68">
+        <f>2*J17</f>
+        <v>400</v>
+      </c>
+      <c r="L17" s="98">
+        <f>K17*H17</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="9">
+        <f>SUM(L13:L17)</f>
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="96"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73">
+        <v>3</v>
+      </c>
+      <c r="E20" s="73">
+        <v>4</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="74">
+        <v>220</v>
+      </c>
+      <c r="J20" s="74">
+        <f>I20/8</f>
+        <v>27.5</v>
+      </c>
+      <c r="K20" s="74">
+        <f>2*J20</f>
+        <v>55</v>
+      </c>
+      <c r="L20" s="75">
+        <f>K20*H20</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79">
+        <v>3</v>
+      </c>
+      <c r="E21" s="79">
+        <v>4</v>
+      </c>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="80">
+        <v>300</v>
+      </c>
+      <c r="J21" s="80">
+        <f t="shared" ref="J21:J23" si="4">I21/8</f>
+        <v>37.5</v>
+      </c>
+      <c r="K21" s="80">
+        <f>2*J21</f>
+        <v>75</v>
+      </c>
+      <c r="L21" s="81">
+        <f>K21*H21</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79">
+        <v>4</v>
+      </c>
+      <c r="E22" s="79">
+        <v>3</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I22" s="80">
+        <v>400</v>
+      </c>
+      <c r="J22" s="80">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K22" s="80">
+        <f>2*J22</f>
+        <v>100</v>
+      </c>
+      <c r="L22" s="81">
+        <f>K22*H22</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85">
+        <v>2</v>
+      </c>
+      <c r="E23" s="85">
+        <v>1</v>
+      </c>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="86">
+        <v>850</v>
+      </c>
+      <c r="J23" s="86">
+        <f t="shared" si="4"/>
+        <v>106.25</v>
+      </c>
+      <c r="K23" s="86">
+        <f>2*J23</f>
+        <v>212.5</v>
+      </c>
+      <c r="L23" s="87">
+        <f>K23*H23</f>
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="11">
+        <f>SUM(L20:L23)</f>
+        <v>2247.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13" cm="1">
+        <f t="array" ref="E26">SUM((30)*(I2:I23))</f>
+        <v>261450</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="91"/>
+      <c r="B27" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89">
+        <f>SUM(M24,M18,M11,M6)</f>
+        <v>12826.25</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13">
+        <f>E26+E27</f>
+        <v>274276.25</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentos/Tiempo Extra.xlsx
+++ b/Documentos/Tiempo Extra.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KCHAVIRA\Documents\GitHub\Wsp-Frames\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE06BDF-3F4E-4860-8581-45B6D0CF5E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90AAE03-DE1D-4F7D-90A7-9E40005C4230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
     <sheet name="Febrero" sheetId="2" r:id="rId2"/>
     <sheet name="Marzo" sheetId="3" r:id="rId3"/>
     <sheet name="Abril" sheetId="4" r:id="rId4"/>
+    <sheet name="Comparacion" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="34">
   <si>
     <t>Departamento</t>
   </si>
@@ -126,13 +127,51 @@
   <si>
     <t>Total por falta de Sistema Mes Marzo</t>
   </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Salarios</t>
+  </si>
+  <si>
+    <t>Salarios TE</t>
+  </si>
+  <si>
+    <t>Total Salarios</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Comparacion</t>
+  </si>
+  <si>
+    <t>% Comparacion</t>
+  </si>
+  <si>
+    <t>Reduccion Ahorro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0&quot;%&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -179,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +261,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -489,12 +558,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,280 +773,440 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="11" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -837,6 +1232,93 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resultados Salarios</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39301377952755906"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -848,18 +1330,113 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Abril!$E$26:$E$28</c:f>
+              <c:f>Comparacion!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>266725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>319545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C00-4CEA-BF61-4AAC4015E2BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacion!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -877,11 +1454,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C894-472F-924B-444D6B184CD0}"/>
+              <c16:uniqueId val="{00000001-9C00-4CEA-BF61-4AAC4015E2BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -889,29 +1467,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1430381872"/>
-        <c:axId val="1430378960"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1179730128"/>
+        <c:axId val="1179732208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1430381872"/>
+        <c:axId val="1179730128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -925,9 +1502,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -938,7 +1514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430378960"/>
+        <c:crossAx val="1179732208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -946,7 +1522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1430378960"/>
+        <c:axId val="1179732208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,9 +1532,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -984,9 +1560,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -997,7 +1572,401 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430381872"/>
+        <c:crossAx val="1179730128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Comparacion!$C$2:$C$4,Comparacion!$C$6)</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12826.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE9-40E2-A432-BE506AEBE50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1458832032"/>
+        <c:axId val="1458831200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1458832032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458831200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1458831200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458832032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,7 +1979,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1022,11 +1991,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1053,7 +2025,435 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparacion!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C7-4171-8E23-659D1E6A01B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1181259456"/>
+        <c:axId val="1181260288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1181259456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181260288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1181260288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181259456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1094,35 +2494,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1130,26 +2528,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1158,9 +2564,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1179,14 +2584,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1195,35 +2592,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1235,30 +2632,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1274,16 +2672,364 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1292,13 +3038,27 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:chartArea>
+  <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1307,13 +3067,190 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1322,14 +3259,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1341,14 +3277,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1360,28 +3295,526 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1396,93 +3829,100 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1490,14 +3930,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1509,12 +3949,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1530,7 +3977,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1539,9 +3985,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1551,7 +3996,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1559,9 +4004,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1572,9 +4017,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1586,12 +4030,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1600,23 +4038,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241704</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705254</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC5F860-3238-454D-AC79-5F24D1D38A3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC6518B-F8D4-446A-B662-069428101475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +4072,92 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364787</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0DB46A-8581-445D-B8F7-ED4A79AE8D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>360734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352628</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147536</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF36BC77-BDF0-4E0C-ABB3-7B8AC02B2B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{228944A8-6238-4C37-89E8-B94384A08C27}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:D9" xr:uid="{879F4AD0-DA2A-4013-9B30-AE840B7219E5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{29C96FE9-AADE-4CD1-8514-4E37564D6A64}" name="Mes" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{39347D22-2CA3-49C1-BF78-77DEB12A773A}" name="Salarios"/>
+    <tableColumn id="3" xr3:uid="{5844BABE-FC05-494E-A614-70E12E0F5DDB}" name="Salarios TE"/>
+    <tableColumn id="4" xr3:uid="{6236ABAA-557C-4521-9C74-F24C0B598B59}" name="Total Salarios"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1936,8 +4459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7AE7C4-CD13-4C1B-8581-522CE6888898}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1984,125 +4507,125 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <f>D2*4</f>
         <v>28</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>220</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <f>H2*E2</f>
         <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
         <v>8</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>32</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>225</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <f t="shared" ref="G3:G5" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <f>H3*E3</f>
         <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>850</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <f>2*G4</f>
         <v>212.5</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <f>H4*E4</f>
         <v>4250</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30">
         <v>3</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>1200</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>2*G5</f>
         <v>300</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <f>H5*E5</f>
         <v>3600</v>
       </c>
@@ -2136,94 +4659,94 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>9</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <f>D8*4</f>
         <v>36</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>250</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <f>F8/8</f>
         <v>31.25</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <f>2*G8</f>
         <v>62.5</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <f>H8*E8</f>
         <v>2250</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42">
         <v>3</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <f t="shared" ref="E9:E10" si="2">D9*4</f>
         <v>12</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>225</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <f t="shared" ref="G9:G10" si="3">F9/8</f>
         <v>28.125</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <f>2*G9</f>
         <v>56.25</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f>H9*E9</f>
         <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <v>15</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <v>850</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="49">
         <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <f>2*G10</f>
         <v>212.5</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <f>H10*E10</f>
         <v>12750</v>
       </c>
@@ -2251,156 +4774,156 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54">
         <v>5</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <f>D13*4</f>
         <v>20</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <v>220</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="55">
         <f>F13/8</f>
         <v>27.5</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="55">
         <f>2*G13</f>
         <v>55</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="56">
         <f>H13*E13</f>
         <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61">
+      <c r="C14" s="59"/>
+      <c r="D14" s="60">
         <v>5</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <f t="shared" ref="E14:E17" si="4">D14*4</f>
         <v>20</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <v>250</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f t="shared" ref="G14:G17" si="5">F14/8</f>
         <v>31.25</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f>2*G14</f>
         <v>62.5</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="62">
         <f>H14*E14</f>
         <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60">
         <v>5</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="60">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <v>300</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <f>2*G15</f>
         <v>75</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="62">
         <f>H15*E15</f>
         <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60">
         <v>3</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="61">
         <v>750</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <f t="shared" si="5"/>
         <v>93.75</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <f>2*G16</f>
         <v>187.5</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="62">
         <f>H16*E16</f>
         <v>2250</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66">
         <v>5</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="66">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="67">
         <v>1600</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="67">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="67">
         <f>2*G17</f>
         <v>400</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="68">
         <f>H17*E17</f>
         <v>8000</v>
       </c>
@@ -2428,125 +4951,125 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72">
         <v>10</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <f>D20*4</f>
         <v>40</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="73">
         <v>220</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="73">
         <f>F20/8</f>
         <v>27.5</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <f>2*G20</f>
         <v>55</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="74">
         <f>H20*E20</f>
         <v>2200</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78">
         <v>10</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="78">
         <f t="shared" ref="E21:E23" si="6">D21*4</f>
         <v>40</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="79">
         <v>300</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="79">
         <f t="shared" ref="G21:G23" si="7">F21/8</f>
         <v>37.5</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <f>2*G21</f>
         <v>75</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="80">
         <f>H21*E21</f>
         <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78">
         <v>10</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="78">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="79">
         <v>400</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="79">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="79">
         <f>2*G22</f>
         <v>100</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="80">
         <f>H22*E22</f>
         <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85">
+      <c r="C23" s="83"/>
+      <c r="D23" s="84">
         <v>0</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="85">
         <v>850</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="85">
         <f t="shared" si="7"/>
         <v>106.25</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="85">
         <f>2*G23</f>
         <v>212.5</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="86">
         <f>H23*E23</f>
         <v>0</v>
       </c>
@@ -2568,34 +5091,34 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="13" cm="1">
         <f t="array" ref="E26">SUM((31)*(F2:F23))</f>
         <v>270010</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="87">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>50165</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="13">
         <f>E26+E27</f>
         <v>320175</v>
@@ -2664,125 +5187,125 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18">
         <v>8</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <f>D2*4</f>
         <v>32</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>220</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <f>H2*E2</f>
         <v>1760</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
         <v>8</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>32</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>225</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <f t="shared" ref="G3:G5" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <f>H3*E3</f>
         <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24">
         <v>8</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>850</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <f>2*G4</f>
         <v>212.5</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <f>H4*E4</f>
         <v>6800</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30">
         <v>5</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>1200</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>2*G5</f>
         <v>300</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <f>H5*E5</f>
         <v>6000</v>
       </c>
@@ -2816,94 +5339,94 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <f>D8*4</f>
         <v>20</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>250</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <f>F8/8</f>
         <v>31.25</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <f>2*G8</f>
         <v>62.5</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <f>H8*E8</f>
         <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42">
         <v>5</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <f t="shared" ref="E9:E10" si="2">D9*4</f>
         <v>20</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>225</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <f t="shared" ref="G9:G10" si="3">F9/8</f>
         <v>28.125</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <f>2*G9</f>
         <v>56.25</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f>H9*E9</f>
         <v>1125</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <v>8</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <v>850</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="49">
         <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <f>2*G10</f>
         <v>212.5</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <f>H10*E10</f>
         <v>6800</v>
       </c>
@@ -2931,156 +5454,156 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54">
         <v>6</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <f>D13*4</f>
         <v>24</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <v>220</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="55">
         <f>F13/8</f>
         <v>27.5</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="55">
         <f>2*G13</f>
         <v>55</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="56">
         <f>H13*E13</f>
         <v>1320</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61">
+      <c r="C14" s="59"/>
+      <c r="D14" s="60">
         <v>6</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <f t="shared" ref="E14:E17" si="4">D14*4</f>
         <v>24</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <v>250</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f t="shared" ref="G14:G17" si="5">F14/8</f>
         <v>31.25</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f>2*G14</f>
         <v>62.5</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="62">
         <f>H14*E14</f>
         <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60">
         <v>6</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="60">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <v>300</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <f>2*G15</f>
         <v>75</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="62">
         <f>H15*E15</f>
         <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60">
         <v>5</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="61">
         <v>750</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <f t="shared" si="5"/>
         <v>93.75</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <f>2*G16</f>
         <v>187.5</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="62">
         <f>H16*E16</f>
         <v>3750</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66">
         <v>1</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="66">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="67">
         <v>1600</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="67">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="67">
         <f>2*G17</f>
         <v>400</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="68">
         <f>H17*E17</f>
         <v>1600</v>
       </c>
@@ -3108,125 +5631,125 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72">
         <v>10</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <f>D20*4</f>
         <v>40</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="73">
         <v>220</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="73">
         <f>F20/8</f>
         <v>27.5</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <f>2*G20</f>
         <v>55</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="74">
         <f>H20*E20</f>
         <v>2200</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78">
         <v>10</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="78">
         <f t="shared" ref="E21:E23" si="6">D21*4</f>
         <v>40</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="79">
         <v>300</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="79">
         <f t="shared" ref="G21:G23" si="7">F21/8</f>
         <v>37.5</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <f>2*G21</f>
         <v>75</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="80">
         <f>H21*E21</f>
         <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78">
         <v>10</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="78">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="79">
         <v>400</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="79">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="79">
         <f>2*G22</f>
         <v>100</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="80">
         <f>H22*E22</f>
         <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85">
+      <c r="C23" s="83"/>
+      <c r="D23" s="84">
         <v>3</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="84">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="85">
         <v>850</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="85">
         <f t="shared" si="7"/>
         <v>106.25</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="85">
         <f>2*G23</f>
         <v>212.5</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="86">
         <f>H23*E23</f>
         <v>2550</v>
       </c>
@@ -3248,34 +5771,34 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="13" cm="1">
         <f t="array" ref="E26">SUM((28)*(F2:F23))</f>
         <v>243880</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="87">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>47255</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="13">
         <f>E26+E27</f>
         <v>291135</v>
@@ -3344,156 +5867,156 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <f>D2*4</f>
         <v>28</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>220</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <f>H2*E2</f>
         <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
         <v>7</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <f t="shared" ref="E3" si="0">D3*4</f>
         <v>28</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>225</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <f t="shared" ref="G3" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <f>H3*E3</f>
         <v>1575</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24">
         <v>7</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f t="shared" ref="E4:E6" si="2">D4*4</f>
         <v>28</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>225</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <f t="shared" ref="G4:G6" si="3">F4/8</f>
         <v>28.125</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <f>2*G4</f>
         <v>56.25</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <f>H4*E4</f>
         <v>1575</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24">
         <v>7</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>850</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <f>2*G5</f>
         <v>212.5</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <f>H5*E5</f>
         <v>5950</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30">
         <v>7</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>1200</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <f>2*G6</f>
         <v>300</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="32">
         <f>H6*E6</f>
         <v>8400</v>
       </c>
@@ -3527,94 +6050,94 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36">
         <v>8</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <f>D9*4</f>
         <v>32</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>250</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <f>F9/8</f>
         <v>31.25</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <f>2*G9</f>
         <v>62.5</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="38">
         <f>H9*E9</f>
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42">
         <v>8</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <f t="shared" ref="E10:E11" si="4">D10*4</f>
         <v>32</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <v>225</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <f t="shared" ref="G10:G11" si="5">F10/8</f>
         <v>28.125</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="43">
         <f>2*G10</f>
         <v>56.25</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <f>H10*E10</f>
         <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48">
         <v>7</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="48">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="49">
         <v>850</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="49">
         <f t="shared" si="5"/>
         <v>106.25</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <f>2*G11</f>
         <v>212.5</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <f>H11*E11</f>
         <v>5950</v>
       </c>
@@ -3642,156 +6165,156 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54">
         <v>7</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="54">
         <f>D14*4</f>
         <v>28</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="55">
         <v>220</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="55">
         <f>F14/8</f>
         <v>27.5</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="55">
         <f>2*G14</f>
         <v>55</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="56">
         <f>H14*E14</f>
         <v>1540</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60">
         <v>7</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="60">
         <f t="shared" ref="E15:E18" si="6">D15*4</f>
         <v>28</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <v>250</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <f t="shared" ref="G15:G18" si="7">F15/8</f>
         <v>31.25</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <f>2*G15</f>
         <v>62.5</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="62">
         <f>H15*E15</f>
         <v>1750</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60">
         <v>7</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="61">
         <v>300</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <f>2*G16</f>
         <v>75</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="62">
         <f>H16*E16</f>
         <v>2100</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60">
         <v>7</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="60">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="61">
         <v>750</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="61">
         <f t="shared" si="7"/>
         <v>93.75</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="61">
         <f>2*G17</f>
         <v>187.5</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="62">
         <f>H17*E17</f>
         <v>5250</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66">
         <v>3</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="66">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="67">
         <v>1600</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="67">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="67">
         <f>2*G18</f>
         <v>400</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="68">
         <f>H18*E18</f>
         <v>4800</v>
       </c>
@@ -3819,156 +6342,156 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72">
         <v>8</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <f>D21*4</f>
         <v>32</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="73">
         <v>220</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="73">
         <f>F21/8</f>
         <v>27.5</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="73">
         <f>2*G21</f>
         <v>55</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="74">
         <f>H21*E21</f>
         <v>1760</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78">
         <v>8</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="78">
         <f t="shared" ref="E22" si="8">D22*4</f>
         <v>32</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="79">
         <v>300</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="79">
         <f t="shared" ref="G22" si="9">F22/8</f>
         <v>37.5</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="79">
         <f>2*G22</f>
         <v>75</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="80">
         <f>H22*E22</f>
         <v>2400</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78">
         <v>12</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="78">
         <f t="shared" ref="E23:E25" si="10">D23*4</f>
         <v>48</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="79">
         <v>300</v>
       </c>
-      <c r="G23" s="80">
+      <c r="G23" s="79">
         <f t="shared" ref="G23:G25" si="11">F23/8</f>
         <v>37.5</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="79">
         <f>2*G23</f>
         <v>75</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="80">
         <f>H23*E23</f>
         <v>3600</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78">
         <v>12</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="78">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="79">
         <v>400</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="79">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="79">
         <f>2*G24</f>
         <v>100</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="80">
         <f>H24*E24</f>
         <v>4800</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85">
+      <c r="C25" s="83"/>
+      <c r="D25" s="84">
         <v>5</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="85">
         <v>850</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="85">
         <f t="shared" si="11"/>
         <v>106.25</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="85">
         <f>2*G25</f>
         <v>212.5</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="86">
         <f>H25*E25</f>
         <v>4250</v>
       </c>
@@ -3990,34 +6513,34 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="13" cm="1">
         <f t="array" ref="E28">SUM((31)*(F2:F25))</f>
         <v>286285</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89">
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="87">
         <f>SUM(J26,J19,J12,J7)</f>
         <v>61040</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="13">
         <f>E28+E29</f>
         <v>347325</v>
@@ -4038,7 +6561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8581AE50-5B11-446D-B899-0F87E4792975}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4058,194 +6581,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="101" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18">
         <v>5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18">
         <f>SUM(D2:G2)</f>
         <v>8</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>225</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <f t="shared" ref="J2:J5" si="0">I2/8</f>
         <v>28.125</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <f>2*J2</f>
         <v>56.25</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <f>K2*H2</f>
         <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
         <v>5</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24">
         <f t="shared" ref="H3:H23" si="1">SUM(D3:G3)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>225</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <f t="shared" si="0"/>
         <v>28.125</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <f>2*J3</f>
         <v>56.25</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <f>K3*H3</f>
         <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>3</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>850</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <f t="shared" si="0"/>
         <v>106.25</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <f>2*J4</f>
         <v>212.5</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="26">
         <f>K4*H4</f>
         <v>1700</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>0.3</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>1200</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <f>2*J5</f>
         <v>300</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="98">
         <f>K5*H5</f>
         <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="95" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="9">
@@ -4254,123 +6777,123 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>6</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>5</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>250</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <f>I8/8</f>
         <v>31.25</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="37">
         <f>2*J8</f>
         <v>62.5</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="38">
         <f>K8*H8</f>
         <v>687.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42">
         <v>4</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <v>5</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <v>225</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="43">
         <f t="shared" ref="J9:J10" si="2">I9/8</f>
         <v>28.125</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <f>2*J9</f>
         <v>56.25</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <f>K9*H9</f>
         <v>506.25</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49">
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="49">
         <v>850</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <f t="shared" si="2"/>
         <v>106.25</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="49">
         <f>2*J10</f>
         <v>212.5</v>
       </c>
-      <c r="L10" s="99">
+      <c r="L10" s="97">
         <f>K10*H10</f>
         <v>425</v>
       </c>
@@ -4382,12 +6905,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="96"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="97" t="s">
+      <c r="L11" s="95" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="9">
@@ -4396,192 +6919,192 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="93"/>
-      <c r="H12" s="96"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="94"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54">
         <v>4</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <v>5</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="54">
         <v>0</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="54">
         <v>0</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="55">
         <v>220</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="55">
         <f>I13/8</f>
         <v>27.5</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="55">
         <f>2*J13</f>
         <v>55</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="56">
         <f>K13*H13</f>
         <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61">
+      <c r="C14" s="59"/>
+      <c r="D14" s="60">
         <v>4</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61">
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <v>250</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <f t="shared" ref="J14:J17" si="3">I14/8</f>
         <v>31.25</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="61">
         <f>2*J14</f>
         <v>62.5</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="62">
         <f>K14*H14</f>
         <v>312.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60">
         <v>4</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="60">
         <v>5</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61">
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="61">
         <v>300</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="61">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="61">
         <f>2*J15</f>
         <v>75</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="62">
         <f>K15*H15</f>
         <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60">
         <v>4</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <v>5</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61">
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="61">
         <v>750</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="61">
         <f t="shared" si="3"/>
         <v>93.75</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="61">
         <f>2*J16</f>
         <v>187.5</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="62">
         <f>K16*H16</f>
         <v>1687.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66">
         <v>2</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="66">
         <v>5</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="67">
         <v>1600</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="67">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="67">
         <f>2*J17</f>
         <v>400</v>
       </c>
-      <c r="L17" s="98">
+      <c r="L17" s="96">
         <f>K17*H17</f>
         <v>2800</v>
       </c>
@@ -4594,11 +7117,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="96"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="95" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="9">
@@ -4607,151 +7130,151 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="96"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72">
         <v>3</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>4</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73">
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="73">
         <v>220</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="73">
         <f>I20/8</f>
         <v>27.5</v>
       </c>
-      <c r="K20" s="74">
+      <c r="K20" s="73">
         <f>2*J20</f>
         <v>55</v>
       </c>
-      <c r="L20" s="75">
+      <c r="L20" s="74">
         <f>K20*H20</f>
         <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79">
+      <c r="C21" s="77"/>
+      <c r="D21" s="78">
         <v>3</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="78">
         <v>4</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79">
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="79">
         <v>300</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="79">
         <f t="shared" ref="J21:J23" si="4">I21/8</f>
         <v>37.5</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="79">
         <f>2*J21</f>
         <v>75</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="80">
         <f>K21*H21</f>
         <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78">
         <v>4</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="78">
         <v>3</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79">
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="79">
         <v>400</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="79">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K22" s="80">
+      <c r="K22" s="79">
         <f>2*J22</f>
         <v>100</v>
       </c>
-      <c r="L22" s="81">
+      <c r="L22" s="80">
         <f>K22*H22</f>
         <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85">
+      <c r="C23" s="83"/>
+      <c r="D23" s="84">
         <v>2</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="84">
         <v>1</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="85">
         <v>850</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="85">
         <f t="shared" si="4"/>
         <v>106.25</v>
       </c>
-      <c r="K23" s="86">
+      <c r="K23" s="85">
         <f>2*J23</f>
         <v>212.5</v>
       </c>
-      <c r="L23" s="87">
+      <c r="L23" s="86">
         <f>K23*H23</f>
         <v>637.5</v>
       </c>
@@ -4776,11 +7299,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="13" cm="1">
         <f t="array" ref="E26">SUM((30)*(I2:I23))</f>
         <v>261450</v>
@@ -4789,25 +7312,25 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="87">
         <f>SUM(M24,M18,M11,M6)</f>
         <v>12826.25</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="13">
         <f>E26+E27</f>
         <v>274276.25</v>
@@ -4823,6 +7346,170 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A64E53E-4687-417C-9D55-21469B4B1E62}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="K24" sqref="J24:K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="20.44140625" style="104" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="105">
+        <v>270010</v>
+      </c>
+      <c r="C2" s="106">
+        <v>50165</v>
+      </c>
+      <c r="D2" s="113">
+        <f t="shared" ref="D2:D5" si="0">SUM(B2:C2)</f>
+        <v>320175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="107">
+        <v>243880</v>
+      </c>
+      <c r="C3" s="108">
+        <v>47255</v>
+      </c>
+      <c r="D3" s="114">
+        <f t="shared" si="0"/>
+        <v>291135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="107">
+        <v>286285</v>
+      </c>
+      <c r="C4" s="108">
+        <v>61040</v>
+      </c>
+      <c r="D4" s="114">
+        <f t="shared" si="0"/>
+        <v>347325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="124">
+        <f>AVERAGE(B2:B4)</f>
+        <v>266725</v>
+      </c>
+      <c r="C5" s="125">
+        <f>AVERAGE(C2:C4)</f>
+        <v>52820</v>
+      </c>
+      <c r="D5" s="126">
+        <f t="shared" si="0"/>
+        <v>319545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="109">
+        <v>261450</v>
+      </c>
+      <c r="C6" s="110">
+        <v>12826.25</v>
+      </c>
+      <c r="D6" s="115">
+        <f>SUM(B6:C6)</f>
+        <v>274276.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="121">
+        <f>B5-B6</f>
+        <v>5275</v>
+      </c>
+      <c r="C7" s="122">
+        <f>C5-(C6*2)</f>
+        <v>27167.5</v>
+      </c>
+      <c r="D7" s="123">
+        <f t="shared" ref="C7:D7" si="1">D5-D6</f>
+        <v>45268.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="127">
+        <f>((B6*100)/B5)/100</f>
+        <v>0.98022307620208082</v>
+      </c>
+      <c r="C8" s="128">
+        <f t="shared" ref="C8:D8" si="2">((C6*100)/C5)/100</f>
+        <v>0.24282942067398711</v>
+      </c>
+      <c r="D8" s="129">
+        <f t="shared" si="2"/>
+        <v>0.85833372451454404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="130">
+        <f>100-98</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="131">
+        <f>100-24</f>
+        <v>76</v>
+      </c>
+      <c r="D9" s="132">
+        <f>100-86</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentos/Tiempo Extra.xlsx
+++ b/Documentos/Tiempo Extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KCHAVIRA\Documents\GitHub\Wsp-Frames\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90AAE03-DE1D-4F7D-90A7-9E40005C4230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F60A76C-D0AD-48DC-A38E-B24B6FDB6CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0&quot;%&quot;"/>
+    <numFmt numFmtId="164" formatCode="0&quot;%&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -292,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -722,6 +722,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -729,20 +778,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,18 +801,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -989,21 +1017,6 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,12 +1047,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1118,14 +1125,74 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1135,25 +1202,6 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1179,13 +1227,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1198,6 +1239,32 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1459,7 +1526,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4148,10 +4214,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{228944A8-6238-4C37-89E8-B94384A08C27}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{228944A8-6238-4C37-89E8-B94384A08C27}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:D9" xr:uid="{879F4AD0-DA2A-4013-9B30-AE840B7219E5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{29C96FE9-AADE-4CD1-8514-4E37564D6A64}" name="Mes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{29C96FE9-AADE-4CD1-8514-4E37564D6A64}" name="Mes" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{39347D22-2CA3-49C1-BF78-77DEB12A773A}" name="Salarios"/>
     <tableColumn id="3" xr3:uid="{5844BABE-FC05-494E-A614-70E12E0F5DDB}" name="Salarios TE"/>
     <tableColumn id="4" xr3:uid="{6236ABAA-557C-4521-9C74-F24C0B598B59}" name="Total Salarios"/>
@@ -4459,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7AE7C4-CD13-4C1B-8581-522CE6888898}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -4478,651 +4544,713 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
         <v>7</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <f>D2*4</f>
         <v>28</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="12">
         <v>220</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="12">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="12">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="13">
         <f>H2*E2</f>
         <v>1540</v>
       </c>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17">
         <v>8</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>32</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <v>225</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="18">
         <f t="shared" ref="G3:G5" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="18">
         <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="19">
         <f>H3*E3</f>
         <v>1800</v>
       </c>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>850</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="18">
         <f>2*G4</f>
         <v>212.5</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="19">
         <f>H4*E4</f>
         <v>4250</v>
       </c>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="24">
         <v>1200</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <f>2*G5</f>
         <v>300</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="25">
         <f>H5*E5</f>
         <v>3600</v>
       </c>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="8" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f>SUM(I2:I5)</f>
         <v>11190</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29">
         <v>9</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <f>D8*4</f>
         <v>36</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <v>250</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="30">
         <f>F8/8</f>
         <v>31.25</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="30">
         <f>2*G8</f>
         <v>62.5</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="31">
         <f>H8*E8</f>
         <v>2250</v>
       </c>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35">
         <v>3</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <f t="shared" ref="E9:E10" si="2">D9*4</f>
         <v>12</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="36">
         <v>225</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="36">
         <f t="shared" ref="G9:G10" si="3">F9/8</f>
         <v>28.125</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="36">
         <f>2*G9</f>
         <v>56.25</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="37">
         <f>H9*E9</f>
         <v>675</v>
       </c>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41">
         <v>15</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="41">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="42">
         <v>850</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="42">
         <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="42">
         <f>2*G10</f>
         <v>212.5</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="43">
         <f>H10*E10</f>
         <v>12750</v>
       </c>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="8" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f>SUM(I8:I10)</f>
         <v>15675</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
         <v>5</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="47">
         <f>D13*4</f>
         <v>20</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="48">
         <v>220</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="48">
         <f>F13/8</f>
         <v>27.5</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="48">
         <f>2*G13</f>
         <v>55</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="49">
         <f>H13*E13</f>
         <v>1100</v>
       </c>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53">
         <v>5</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="53">
         <f t="shared" ref="E14:E17" si="4">D14*4</f>
         <v>20</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="54">
         <v>250</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="54">
         <f t="shared" ref="G14:G17" si="5">F14/8</f>
         <v>31.25</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="54">
         <f>2*G14</f>
         <v>62.5</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="55">
         <f>H14*E14</f>
         <v>1250</v>
       </c>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53">
         <v>5</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="53">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="54">
         <v>300</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="54">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="54">
         <f>2*G15</f>
         <v>75</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="55">
         <f>H15*E15</f>
         <v>1500</v>
       </c>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53">
         <v>3</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="53">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="54">
         <v>750</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="54">
         <f t="shared" si="5"/>
         <v>93.75</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="54">
         <f>2*G16</f>
         <v>187.5</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="55">
         <f>H16*E16</f>
         <v>2250</v>
       </c>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59">
         <v>5</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="59">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="60">
         <v>1600</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="60">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="60">
         <f>2*G17</f>
         <v>400</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="61">
         <f>H17*E17</f>
         <v>8000</v>
       </c>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="8" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <f>SUM(I13:I17)</f>
         <v>14100</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65">
         <v>10</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="65">
         <f>D20*4</f>
         <v>40</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="66">
         <v>220</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="66">
         <f>F20/8</f>
         <v>27.5</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="66">
         <f>2*G20</f>
         <v>55</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="67">
         <f>H20*E20</f>
         <v>2200</v>
       </c>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78">
+      <c r="C21" s="70"/>
+      <c r="D21" s="71">
         <v>10</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="71">
         <f t="shared" ref="E21:E23" si="6">D21*4</f>
         <v>40</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="72">
         <v>300</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="72">
         <f t="shared" ref="G21:G23" si="7">F21/8</f>
         <v>37.5</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="72">
         <f>2*G21</f>
         <v>75</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="73">
         <f>H21*E21</f>
         <v>3000</v>
       </c>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71">
         <v>10</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="71">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="72">
         <v>400</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="72">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="72">
         <f>2*G22</f>
         <v>100</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="73">
         <f>H22*E22</f>
         <v>4000</v>
       </c>
+      <c r="J22" s="120"/>
     </row>
     <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84">
+      <c r="C23" s="76"/>
+      <c r="D23" s="77">
         <v>0</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="78">
         <v>850</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="78">
         <f t="shared" si="7"/>
         <v>106.25</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="78">
         <f>2*G23</f>
         <v>212.5</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="79">
         <f>H23*E23</f>
         <v>0</v>
       </c>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="I24" s="10" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="127">
         <f>SUM(I20:I23)</f>
         <v>9200</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="120"/>
+    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="103" t="s">
+      <c r="A26" s="125"/>
+      <c r="B26" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="13" cm="1">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129" cm="1">
         <f t="array" ref="E26">SUM((31)*(F2:F23))</f>
         <v>270010</v>
       </c>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="87">
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>50165</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="103" t="s">
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="120"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="13">
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136">
         <f>E26+E27</f>
         <v>320175</v>
       </c>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5139,8 +5267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC5521-4988-4D0D-A028-B369FE76398F}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E28" sqref="B26:E28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -5158,651 +5286,713 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
         <v>8</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <f>D2*4</f>
         <v>32</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="12">
         <v>220</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="12">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="12">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="13">
         <f>H2*E2</f>
         <v>1760</v>
       </c>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17">
         <v>8</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>32</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <v>225</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="18">
         <f t="shared" ref="G3:G5" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="18">
         <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="19">
         <f>H3*E3</f>
         <v>1800</v>
       </c>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
         <v>8</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>850</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="18">
         <f>2*G4</f>
         <v>212.5</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="19">
         <f>H4*E4</f>
         <v>6800</v>
       </c>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23">
         <v>5</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="24">
         <v>1200</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <f>2*G5</f>
         <v>300</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="25">
         <f>H5*E5</f>
         <v>6000</v>
       </c>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="8" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f>SUM(I2:I5)</f>
         <v>16360</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29">
         <v>5</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <f>D8*4</f>
         <v>20</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <v>250</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="30">
         <f>F8/8</f>
         <v>31.25</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="30">
         <f>2*G8</f>
         <v>62.5</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="31">
         <f>H8*E8</f>
         <v>1250</v>
       </c>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35">
         <v>5</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <f t="shared" ref="E9:E10" si="2">D9*4</f>
         <v>20</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="36">
         <v>225</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="36">
         <f t="shared" ref="G9:G10" si="3">F9/8</f>
         <v>28.125</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="36">
         <f>2*G9</f>
         <v>56.25</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="37">
         <f>H9*E9</f>
         <v>1125</v>
       </c>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41">
         <v>8</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="41">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="42">
         <v>850</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="42">
         <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="42">
         <f>2*G10</f>
         <v>212.5</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="43">
         <f>H10*E10</f>
         <v>6800</v>
       </c>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="8" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f>SUM(I8:I10)</f>
         <v>9175</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
         <v>6</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="47">
         <f>D13*4</f>
         <v>24</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="48">
         <v>220</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="48">
         <f>F13/8</f>
         <v>27.5</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="48">
         <f>2*G13</f>
         <v>55</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="49">
         <f>H13*E13</f>
         <v>1320</v>
       </c>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53">
         <v>6</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="53">
         <f t="shared" ref="E14:E17" si="4">D14*4</f>
         <v>24</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="54">
         <v>250</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="54">
         <f t="shared" ref="G14:G17" si="5">F14/8</f>
         <v>31.25</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="54">
         <f>2*G14</f>
         <v>62.5</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="55">
         <f>H14*E14</f>
         <v>1500</v>
       </c>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53">
         <v>6</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="53">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="54">
         <v>300</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="54">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="54">
         <f>2*G15</f>
         <v>75</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="55">
         <f>H15*E15</f>
         <v>1800</v>
       </c>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53">
         <v>5</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="53">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="54">
         <v>750</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="54">
         <f t="shared" si="5"/>
         <v>93.75</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="54">
         <f>2*G16</f>
         <v>187.5</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="55">
         <f>H16*E16</f>
         <v>3750</v>
       </c>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59">
         <v>1</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="59">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="60">
         <v>1600</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="60">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="60">
         <f>2*G17</f>
         <v>400</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="61">
         <f>H17*E17</f>
         <v>1600</v>
       </c>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="8" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <f>SUM(I13:I17)</f>
         <v>9970</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65">
         <v>10</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="65">
         <f>D20*4</f>
         <v>40</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="66">
         <v>220</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="66">
         <f>F20/8</f>
         <v>27.5</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="66">
         <f>2*G20</f>
         <v>55</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="67">
         <f>H20*E20</f>
         <v>2200</v>
       </c>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78">
+      <c r="C21" s="70"/>
+      <c r="D21" s="71">
         <v>10</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="71">
         <f t="shared" ref="E21:E23" si="6">D21*4</f>
         <v>40</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="72">
         <v>300</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="72">
         <f t="shared" ref="G21:G23" si="7">F21/8</f>
         <v>37.5</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="72">
         <f>2*G21</f>
         <v>75</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="73">
         <f>H21*E21</f>
         <v>3000</v>
       </c>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71">
         <v>10</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="71">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="72">
         <v>400</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="72">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="72">
         <f>2*G22</f>
         <v>100</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="73">
         <f>H22*E22</f>
         <v>4000</v>
       </c>
+      <c r="J22" s="120"/>
     </row>
     <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84">
+      <c r="C23" s="76"/>
+      <c r="D23" s="77">
         <v>3</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="77">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="78">
         <v>850</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="78">
         <f t="shared" si="7"/>
         <v>106.25</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="78">
         <f>2*G23</f>
         <v>212.5</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="79">
         <f>H23*E23</f>
         <v>2550</v>
       </c>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="I24" s="10" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="127">
         <f>SUM(I20:I23)</f>
         <v>11750</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="120"/>
+    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="103" t="s">
+      <c r="A26" s="125"/>
+      <c r="B26" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="13" cm="1">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129" cm="1">
         <f t="array" ref="E26">SUM((28)*(F2:F23))</f>
         <v>243880</v>
       </c>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="87">
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>47255</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="103" t="s">
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="120"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="13">
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136">
         <f>E26+E27</f>
         <v>291135</v>
       </c>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5819,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726DBE1C-F047-4F19-9C72-4C60A2C4AD9C}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -5838,713 +6028,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
         <v>7</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <f>D2*4</f>
         <v>28</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="12">
         <v>220</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="12">
         <f>F2/8</f>
         <v>27.5</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="12">
         <f>2*G2</f>
         <v>55</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="13">
         <f>H2*E2</f>
         <v>1540</v>
       </c>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17">
         <v>7</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <f t="shared" ref="E3" si="0">D3*4</f>
         <v>28</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <v>225</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="18">
         <f t="shared" ref="G3" si="1">F3/8</f>
         <v>28.125</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="18">
         <f>2*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="19">
         <f>H3*E3</f>
         <v>1575</v>
       </c>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
         <v>7</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="17">
         <f t="shared" ref="E4:E6" si="2">D4*4</f>
         <v>28</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>225</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <f t="shared" ref="G4:G6" si="3">F4/8</f>
         <v>28.125</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="18">
         <f>2*G4</f>
         <v>56.25</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="19">
         <f>H4*E4</f>
         <v>1575</v>
       </c>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17">
         <v>7</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="17">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <v>850</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="18">
         <f t="shared" si="3"/>
         <v>106.25</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="18">
         <f>2*G5</f>
         <v>212.5</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="19">
         <f>H5*E5</f>
         <v>5950</v>
       </c>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23">
         <v>7</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="23">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="24">
         <v>1200</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="24">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="24">
         <f>2*G6</f>
         <v>300</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="25">
         <f>H6*E6</f>
         <v>8400</v>
       </c>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8" t="s">
+      <c r="A7" s="122"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f>SUM(I2:I6)</f>
         <v>19040</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29">
         <v>8</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="29">
         <f>D9*4</f>
         <v>32</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <v>250</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="30">
         <f>F9/8</f>
         <v>31.25</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="30">
         <f>2*G9</f>
         <v>62.5</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="31">
         <f>H9*E9</f>
         <v>2000</v>
       </c>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35">
         <v>8</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <f t="shared" ref="E10:E11" si="4">D10*4</f>
         <v>32</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="36">
         <v>225</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="36">
         <f t="shared" ref="G10:G11" si="5">F10/8</f>
         <v>28.125</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="36">
         <f>2*G10</f>
         <v>56.25</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="37">
         <f>H10*E10</f>
         <v>1800</v>
       </c>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48">
+      <c r="C11" s="40"/>
+      <c r="D11" s="41">
         <v>7</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="41">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="42">
         <v>850</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="42">
         <f t="shared" si="5"/>
         <v>106.25</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="42">
         <f>2*G11</f>
         <v>212.5</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="43">
         <f>H11*E11</f>
         <v>5950</v>
       </c>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="8" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <f>SUM(I9:I11)</f>
         <v>9750</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54">
+      <c r="C14" s="46"/>
+      <c r="D14" s="47">
         <v>7</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="47">
         <f>D14*4</f>
         <v>28</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="48">
         <v>220</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="48">
         <f>F14/8</f>
         <v>27.5</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="48">
         <f>2*G14</f>
         <v>55</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="49">
         <f>H14*E14</f>
         <v>1540</v>
       </c>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53">
         <v>7</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="53">
         <f t="shared" ref="E15:E18" si="6">D15*4</f>
         <v>28</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="54">
         <v>250</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="54">
         <f t="shared" ref="G15:G18" si="7">F15/8</f>
         <v>31.25</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="54">
         <f>2*G15</f>
         <v>62.5</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="55">
         <f>H15*E15</f>
         <v>1750</v>
       </c>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53">
         <v>7</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="53">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="54">
         <v>300</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="54">
         <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="54">
         <f>2*G16</f>
         <v>75</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="55">
         <f>H16*E16</f>
         <v>2100</v>
       </c>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53">
         <v>7</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="53">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="54">
         <v>750</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="54">
         <f t="shared" si="7"/>
         <v>93.75</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="54">
         <f>2*G17</f>
         <v>187.5</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="55">
         <f>H17*E17</f>
         <v>5250</v>
       </c>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59">
         <v>3</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="59">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="60">
         <v>1600</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="60">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="60">
         <f>2*G18</f>
         <v>400</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="61">
         <f>H18*E18</f>
         <v>4800</v>
       </c>
+      <c r="J18" s="120"/>
     </row>
     <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="8" t="s">
+      <c r="A19" s="122"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <f>SUM(I14:I18)</f>
         <v>15440</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65">
         <v>8</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="65">
         <f>D21*4</f>
         <v>32</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="66">
         <v>220</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="66">
         <f>F21/8</f>
         <v>27.5</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="66">
         <f>2*G21</f>
         <v>55</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="67">
         <f>H21*E21</f>
         <v>1760</v>
       </c>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71">
         <v>8</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="71">
         <f t="shared" ref="E22" si="8">D22*4</f>
         <v>32</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="72">
         <v>300</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="72">
         <f t="shared" ref="G22" si="9">F22/8</f>
         <v>37.5</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="72">
         <f>2*G22</f>
         <v>75</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="73">
         <f>H22*E22</f>
         <v>2400</v>
       </c>
+      <c r="J22" s="120"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78">
+      <c r="C23" s="70"/>
+      <c r="D23" s="71">
         <v>12</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="71">
         <f t="shared" ref="E23:E25" si="10">D23*4</f>
         <v>48</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="72">
         <v>300</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="72">
         <f t="shared" ref="G23:G25" si="11">F23/8</f>
         <v>37.5</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="72">
         <f>2*G23</f>
         <v>75</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="73">
         <f>H23*E23</f>
         <v>3600</v>
       </c>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78">
+      <c r="C24" s="70"/>
+      <c r="D24" s="71">
         <v>12</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="71">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="72">
         <v>400</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="72">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="72">
         <f>2*G24</f>
         <v>100</v>
       </c>
-      <c r="I24" s="80">
+      <c r="I24" s="73">
         <f>H24*E24</f>
         <v>4800</v>
       </c>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84">
+      <c r="C25" s="76"/>
+      <c r="D25" s="77">
         <v>5</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="77">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="78">
         <v>850</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="78">
         <f t="shared" si="11"/>
         <v>106.25</v>
       </c>
-      <c r="H25" s="85">
+      <c r="H25" s="78">
         <f>2*G25</f>
         <v>212.5</v>
       </c>
-      <c r="I25" s="86">
+      <c r="I25" s="79">
         <f>H25*E25</f>
         <v>4250</v>
       </c>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="I26" s="10" t="s">
+      <c r="A26" s="122"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="127">
         <f>SUM(I21:I25)</f>
         <v>16810</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="125"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="120"/>
+    </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="103" t="s">
+      <c r="A28" s="125"/>
+      <c r="B28" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="13" cm="1">
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129" cm="1">
         <f t="array" ref="E28">SUM((31)*(F2:F25))</f>
         <v>286285</v>
       </c>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
-      <c r="B29" s="102" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="87">
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133">
         <f>SUM(J26,J19,J12,J7)</f>
         <v>61040</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="103" t="s">
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="120"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="134"/>
+      <c r="B30" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="13">
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="136">
         <f>E28+E29</f>
         <v>347325</v>
       </c>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6561,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8581AE50-5B11-446D-B899-0F87E4792975}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6581,762 +6835,833 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="89" t="s">
         <v>6</v>
       </c>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
         <v>5</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="11">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
         <f>SUM(D2:G2)</f>
         <v>8</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="12">
         <v>225</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:J5" si="0">I2/8</f>
         <v>28.125</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="12">
         <f>2*J2</f>
         <v>56.25</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="13">
         <f>K2*H2</f>
         <v>450</v>
       </c>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17">
         <v>5</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17">
         <f t="shared" ref="H3:H23" si="1">SUM(D3:G3)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="18">
         <v>225</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="18">
         <f t="shared" si="0"/>
         <v>28.125</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="18">
         <f>2*J3</f>
         <v>56.25</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="19">
         <f>K3*H3</f>
         <v>450</v>
       </c>
+      <c r="M3" s="120"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="18">
         <v>850</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="18">
         <f t="shared" si="0"/>
         <v>106.25</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="18">
         <f>2*J4</f>
         <v>212.5</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="19">
         <f>K4*H4</f>
         <v>1700</v>
       </c>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="23">
         <v>0.3</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="24">
         <v>1200</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="24">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="24">
         <f>2*J5</f>
         <v>300</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="86">
         <f>K5*H5</f>
         <v>390</v>
       </c>
+      <c r="M5" s="120"/>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="95" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <f>SUM(L2:L5)</f>
         <v>2990</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29">
         <v>6</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <v>5</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="30">
         <v>250</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="30">
         <f>I8/8</f>
         <v>31.25</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="30">
         <f>2*J8</f>
         <v>62.5</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="31">
         <f>K8*H8</f>
         <v>687.5</v>
       </c>
+      <c r="M8" s="120"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35">
         <v>4</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <v>5</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="36">
         <v>225</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="36">
         <f t="shared" ref="J9:J10" si="2">I9/8</f>
         <v>28.125</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="36">
         <f>2*J9</f>
         <v>56.25</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="37">
         <f>K9*H9</f>
         <v>506.25</v>
       </c>
+      <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41">
         <v>1</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="41">
         <v>1</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="42">
         <v>850</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="42">
         <f t="shared" si="2"/>
         <v>106.25</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="42">
         <f>2*J10</f>
         <v>212.5</v>
       </c>
-      <c r="L10" s="97">
+      <c r="L10" s="85">
         <f>K10*H10</f>
         <v>425</v>
       </c>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="95" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="6">
         <f>SUM(L8:L10)</f>
         <v>1618.75</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="91"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="120"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
         <v>4</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="47">
         <v>5</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="47">
         <v>0</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="47">
         <v>0</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="47">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="48">
         <v>220</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="48">
         <f>I13/8</f>
         <v>27.5</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="48">
         <f>2*J13</f>
         <v>55</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="49">
         <f>K13*H13</f>
         <v>495</v>
       </c>
+      <c r="M13" s="120"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53">
         <v>4</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="53">
         <v>1</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60">
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="54">
         <v>250</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="54">
         <f t="shared" ref="J14:J17" si="3">I14/8</f>
         <v>31.25</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="54">
         <f>2*J14</f>
         <v>62.5</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="55">
         <f>K14*H14</f>
         <v>312.5</v>
       </c>
+      <c r="M14" s="120"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53">
         <v>4</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="53">
         <v>5</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="54">
         <v>300</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="54">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="54">
         <f>2*J15</f>
         <v>75</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="55">
         <f>K15*H15</f>
         <v>675</v>
       </c>
+      <c r="M15" s="120"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53">
         <v>4</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="53">
         <v>5</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="54">
         <v>750</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="54">
         <f t="shared" si="3"/>
         <v>93.75</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="54">
         <f>2*J16</f>
         <v>187.5</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="55">
         <f>K16*H16</f>
         <v>1687.5</v>
       </c>
+      <c r="M16" s="120"/>
     </row>
     <row r="17" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59">
         <v>2</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="59">
         <v>5</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66">
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="60">
         <v>1600</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="60">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="60">
         <f>2*J17</f>
         <v>400</v>
       </c>
-      <c r="L17" s="96">
+      <c r="L17" s="84">
         <f>K17*H17</f>
         <v>2800</v>
       </c>
+      <c r="M17" s="120"/>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="95" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="6">
         <f>SUM(L13:L17)</f>
         <v>5970</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="94"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="120"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65">
         <v>3</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="65">
         <v>4</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72">
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="66">
         <v>220</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="66">
         <f>I20/8</f>
         <v>27.5</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="66">
         <f>2*J20</f>
         <v>55</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="67">
         <f>K20*H20</f>
         <v>385</v>
       </c>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78">
+      <c r="C21" s="70"/>
+      <c r="D21" s="71">
         <v>3</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="71">
         <v>4</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78">
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="72">
         <v>300</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="72">
         <f t="shared" ref="J21:J23" si="4">I21/8</f>
         <v>37.5</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="72">
         <f>2*J21</f>
         <v>75</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="73">
         <f>K21*H21</f>
         <v>525</v>
       </c>
+      <c r="M21" s="120"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71">
         <v>4</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="71">
         <v>3</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78">
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="72">
         <v>400</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="72">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="72">
         <f>2*J22</f>
         <v>100</v>
       </c>
-      <c r="L22" s="80">
+      <c r="L22" s="73">
         <f>K22*H22</f>
         <v>700</v>
       </c>
+      <c r="M22" s="120"/>
     </row>
     <row r="23" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84">
+      <c r="C23" s="76"/>
+      <c r="D23" s="77">
         <v>2</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="77">
         <v>1</v>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84">
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="78">
         <v>850</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="78">
         <f t="shared" si="4"/>
         <v>106.25</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="78">
         <f>2*J23</f>
         <v>212.5</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="79">
         <f>K23*H23</f>
         <v>637.5</v>
       </c>
+      <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="10" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="127">
         <f>SUM(L20:L23)</f>
         <v>2247.5</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="125"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="120"/>
+    </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="103" t="s">
+      <c r="A26" s="125"/>
+      <c r="B26" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="13" cm="1">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129" cm="1">
         <f t="array" ref="E26">SUM((30)*(I2:I23))</f>
         <v>261450</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="87">
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133">
         <f>SUM(M24,M18,M11,M6)</f>
         <v>12826.25</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="103" t="s">
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="120"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="13">
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136">
         <f>E26+E27</f>
         <v>274276.25</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7353,153 +7678,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A64E53E-4687-417C-9D55-21469B4B1E62}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="K24" sqref="J24:K24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.44140625" style="104" customWidth="1"/>
+    <col min="1" max="4" width="20.44140625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="105" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="105">
+      <c r="B2" s="91">
         <v>270010</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="92">
         <v>50165</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="99">
         <f t="shared" ref="D2:D5" si="0">SUM(B2:C2)</f>
         <v>320175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="93">
         <v>243880</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="94">
         <v>47255</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="100">
         <f t="shared" si="0"/>
         <v>291135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="93">
         <v>286285</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="94">
         <v>61040</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="100">
         <f t="shared" si="0"/>
         <v>347325</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="110">
         <f>AVERAGE(B2:B4)</f>
         <v>266725</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="111">
         <f>AVERAGE(C2:C4)</f>
         <v>52820</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="112">
         <f t="shared" si="0"/>
         <v>319545</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="95">
         <v>261450</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="96">
         <v>12826.25</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="101">
         <f>SUM(B6:C6)</f>
         <v>274276.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="107">
         <f>B5-B6</f>
         <v>5275</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="108">
         <f>C5-(C6*2)</f>
         <v>27167.5</v>
       </c>
-      <c r="D7" s="123">
-        <f t="shared" ref="C7:D7" si="1">D5-D6</f>
+      <c r="D7" s="109">
+        <f t="shared" ref="D7" si="1">D5-D6</f>
         <v>45268.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="127">
+      <c r="B8" s="113">
         <f>((B6*100)/B5)/100</f>
         <v>0.98022307620208082</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="114">
         <f t="shared" ref="C8:D8" si="2">((C6*100)/C5)/100</f>
         <v>0.24282942067398711</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="115">
         <f t="shared" si="2"/>
         <v>0.85833372451454404</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="130">
+      <c r="B9" s="116">
         <f>100-98</f>
         <v>2</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="117">
         <f>100-24</f>
         <v>76</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="118">
         <f>100-86</f>
         <v>14</v>
       </c>

--- a/Documentos/Tiempo Extra.xlsx
+++ b/Documentos/Tiempo Extra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KCHAVIRA\Documents\GitHub\Wsp-Frames\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaleb\Documents\GitHub\WSPFRAMES\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F60A76C-D0AD-48DC-A38E-B24B6FDB6CBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59220A-DEC8-4C4F-A35B-492531C62E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
+    <workbookView xWindow="19080" yWindow="-13590" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
   <si>
     <t>Departamento</t>
   </si>
@@ -163,15 +163,18 @@
   <si>
     <t>Reduccion Ahorro</t>
   </si>
+  <si>
+    <t>Total por falta de Sistema Mes Febrero</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0&quot;%&quot;"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0&quot;%&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -774,8 +777,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="141">
@@ -795,7 +798,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,10 +816,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,10 +834,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,10 +852,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,10 +870,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,10 +888,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,10 +906,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,10 +924,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,10 +942,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,10 +960,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,10 +978,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,10 +996,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,10 +1014,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,13 +1032,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,22 +1053,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,13 +1077,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,22 +1101,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,13 +1128,13 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="11" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -1140,10 +1143,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,43 +1155,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1385,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1577,7 +1580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1179732208"/>
@@ -1635,7 +1638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1179730128"/>
@@ -1676,7 +1679,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1724,7 +1727,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1774,7 +1777,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1831,7 +1834,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1960,7 +1963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1458831200"/>
@@ -2029,7 +2032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1458832032"/>
@@ -2080,7 +2083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2137,7 +2140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2194,7 +2197,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2314,7 +2317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1181260288"/>
@@ -2372,7 +2375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1181259456"/>
@@ -2431,7 +2434,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4529,21 +4532,21 @@
       <selection activeCell="L30" sqref="L30:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="J2" s="120"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -4637,7 +4640,7 @@
       </c>
       <c r="J3" s="120"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
@@ -4669,7 +4672,7 @@
       </c>
       <c r="J4" s="120"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="J5" s="120"/>
     </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="122"/>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -4718,7 +4721,7 @@
         <v>11190</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -4730,7 +4733,7 @@
       <c r="I7" s="123"/>
       <c r="J7" s="120"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
@@ -4762,7 +4765,7 @@
       </c>
       <c r="J8" s="120"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -4794,7 +4797,7 @@
       </c>
       <c r="J9" s="120"/>
     </row>
-    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
@@ -4826,7 +4829,7 @@
       </c>
       <c r="J10" s="120"/>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="122"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -4843,7 +4846,7 @@
         <v>15675</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
@@ -4855,7 +4858,7 @@
       <c r="I12" s="126"/>
       <c r="J12" s="120"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
@@ -4887,7 +4890,7 @@
       </c>
       <c r="J13" s="120"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +4922,7 @@
       </c>
       <c r="J14" s="120"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
@@ -4951,7 +4954,7 @@
       </c>
       <c r="J15" s="120"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
@@ -4983,7 +4986,7 @@
       </c>
       <c r="J16" s="120"/>
     </row>
-    <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
@@ -5015,7 +5018,7 @@
       </c>
       <c r="J17" s="120"/>
     </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="122"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -5032,7 +5035,7 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="126"/>
       <c r="C19" s="126"/>
@@ -5044,7 +5047,7 @@
       <c r="I19" s="126"/>
       <c r="J19" s="120"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
@@ -5076,7 +5079,7 @@
       </c>
       <c r="J20" s="120"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>17</v>
       </c>
@@ -5108,7 +5111,7 @@
       </c>
       <c r="J21" s="120"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
@@ -5140,7 +5143,7 @@
       </c>
       <c r="J22" s="120"/>
     </row>
-    <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
         <v>17</v>
       </c>
@@ -5172,7 +5175,7 @@
       </c>
       <c r="J23" s="120"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -5189,7 +5192,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="125"/>
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
@@ -5201,14 +5204,14 @@
       <c r="I25" s="126"/>
       <c r="J25" s="120"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="125"/>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129" cm="1">
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="128" cm="1">
         <f t="array" ref="E26">SUM((31)*(F2:F23))</f>
         <v>270010</v>
       </c>
@@ -5218,14 +5221,14 @@
       <c r="I26" s="126"/>
       <c r="J26" s="120"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="130"/>
+      <c r="B27" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133">
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="131">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>50165</v>
       </c>
@@ -5235,21 +5238,21 @@
       <c r="I27" s="126"/>
       <c r="J27" s="120"/>
     </row>
-    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135" t="s">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="132"/>
+      <c r="B28" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136">
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="133">
         <f>E26+E27</f>
         <v>320175</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
       <c r="J28" s="121"/>
     </row>
   </sheetData>
@@ -5267,25 +5270,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC5521-4988-4D0D-A028-B369FE76398F}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5315,7 +5318,7 @@
       </c>
       <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -5347,7 +5350,7 @@
       </c>
       <c r="J2" s="120"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5382,7 @@
       </c>
       <c r="J3" s="120"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
@@ -5411,7 +5414,7 @@
       </c>
       <c r="J4" s="120"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -5443,7 +5446,7 @@
       </c>
       <c r="J5" s="120"/>
     </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="122"/>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -5460,7 +5463,7 @@
         <v>16360</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -5472,7 +5475,7 @@
       <c r="I7" s="123"/>
       <c r="J7" s="120"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5507,7 @@
       </c>
       <c r="J8" s="120"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -5536,7 +5539,7 @@
       </c>
       <c r="J9" s="120"/>
     </row>
-    <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
@@ -5568,7 +5571,7 @@
       </c>
       <c r="J10" s="120"/>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="122"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -5585,7 +5588,7 @@
         <v>9175</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
@@ -5597,7 +5600,7 @@
       <c r="I12" s="126"/>
       <c r="J12" s="120"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5632,7 @@
       </c>
       <c r="J13" s="120"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
@@ -5661,7 +5664,7 @@
       </c>
       <c r="J14" s="120"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
@@ -5693,7 +5696,7 @@
       </c>
       <c r="J15" s="120"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
@@ -5725,7 +5728,7 @@
       </c>
       <c r="J16" s="120"/>
     </row>
-    <row r="17" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
@@ -5757,7 +5760,7 @@
       </c>
       <c r="J17" s="120"/>
     </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="122"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -5774,7 +5777,7 @@
         <v>9970</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="126"/>
       <c r="C19" s="126"/>
@@ -5786,7 +5789,7 @@
       <c r="I19" s="126"/>
       <c r="J19" s="120"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
@@ -5818,7 +5821,7 @@
       </c>
       <c r="J20" s="120"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>17</v>
       </c>
@@ -5850,7 +5853,7 @@
       </c>
       <c r="J21" s="120"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
@@ -5882,7 +5885,7 @@
       </c>
       <c r="J22" s="120"/>
     </row>
-    <row r="23" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
         <v>17</v>
       </c>
@@ -5914,7 +5917,7 @@
       </c>
       <c r="J23" s="120"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -5931,7 +5934,7 @@
         <v>11750</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="125"/>
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
@@ -5943,14 +5946,14 @@
       <c r="I25" s="126"/>
       <c r="J25" s="120"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="125"/>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129" cm="1">
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="128" cm="1">
         <f t="array" ref="E26">SUM((28)*(F2:F23))</f>
         <v>243880</v>
       </c>
@@ -5960,14 +5963,14 @@
       <c r="I26" s="126"/>
       <c r="J26" s="120"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="130"/>
+      <c r="B27" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="131">
         <f>SUM(J24,J18,J11,J6)</f>
         <v>47255</v>
       </c>
@@ -5977,21 +5980,21 @@
       <c r="I27" s="126"/>
       <c r="J27" s="120"/>
     </row>
-    <row r="28" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135" t="s">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="132"/>
+      <c r="B28" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136">
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="133">
         <f>E26+E27</f>
         <v>291135</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
       <c r="J28" s="121"/>
     </row>
   </sheetData>
@@ -6013,21 +6016,21 @@
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6057,7 +6060,7 @@
       </c>
       <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6089,7 +6092,7 @@
       </c>
       <c r="J2" s="120"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -6121,7 +6124,7 @@
       </c>
       <c r="J3" s="120"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
@@ -6153,7 +6156,7 @@
       </c>
       <c r="J4" s="120"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
@@ -6185,7 +6188,7 @@
       </c>
       <c r="J5" s="120"/>
     </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
@@ -6217,7 +6220,7 @@
       </c>
       <c r="J6" s="120"/>
     </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -6234,7 +6237,7 @@
         <v>19040</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="122"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -6246,7 +6249,7 @@
       <c r="I8" s="123"/>
       <c r="J8" s="120"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
@@ -6278,7 +6281,7 @@
       </c>
       <c r="J9" s="120"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>14</v>
       </c>
@@ -6310,7 +6313,7 @@
       </c>
       <c r="J10" s="120"/>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
@@ -6342,7 +6345,7 @@
       </c>
       <c r="J11" s="120"/>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="122"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -6359,7 +6362,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="126"/>
       <c r="C13" s="126"/>
@@ -6371,7 +6374,7 @@
       <c r="I13" s="126"/>
       <c r="J13" s="120"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>16</v>
       </c>
@@ -6403,7 +6406,7 @@
       </c>
       <c r="J14" s="120"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
@@ -6435,7 +6438,7 @@
       </c>
       <c r="J15" s="120"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
@@ -6467,7 +6470,7 @@
       </c>
       <c r="J16" s="120"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>16</v>
       </c>
@@ -6499,7 +6502,7 @@
       </c>
       <c r="J17" s="120"/>
     </row>
-    <row r="18" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>16</v>
       </c>
@@ -6531,7 +6534,7 @@
       </c>
       <c r="J18" s="120"/>
     </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="122"/>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -6548,7 +6551,7 @@
         <v>15440</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="126"/>
       <c r="C20" s="126"/>
@@ -6560,7 +6563,7 @@
       <c r="I20" s="126"/>
       <c r="J20" s="120"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>17</v>
       </c>
@@ -6592,7 +6595,7 @@
       </c>
       <c r="J21" s="120"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
@@ -6624,7 +6627,7 @@
       </c>
       <c r="J22" s="120"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>17</v>
       </c>
@@ -6656,7 +6659,7 @@
       </c>
       <c r="J23" s="120"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>17</v>
       </c>
@@ -6688,7 +6691,7 @@
       </c>
       <c r="J24" s="120"/>
     </row>
-    <row r="25" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="74" t="s">
         <v>17</v>
       </c>
@@ -6720,7 +6723,7 @@
       </c>
       <c r="J25" s="120"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="122"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -6737,7 +6740,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="125"/>
       <c r="B27" s="126"/>
       <c r="C27" s="126"/>
@@ -6749,14 +6752,14 @@
       <c r="I27" s="126"/>
       <c r="J27" s="120"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="125"/>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129" cm="1">
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="128" cm="1">
         <f t="array" ref="E28">SUM((31)*(F2:F25))</f>
         <v>286285</v>
       </c>
@@ -6766,14 +6769,14 @@
       <c r="I28" s="126"/>
       <c r="J28" s="120"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="130"/>
+      <c r="B29" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133">
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="131">
         <f>SUM(J26,J19,J12,J7)</f>
         <v>61040</v>
       </c>
@@ -6783,21 +6786,21 @@
       <c r="I29" s="126"/>
       <c r="J29" s="120"/>
     </row>
-    <row r="30" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135" t="s">
+    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="132"/>
+      <c r="B30" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136">
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="133">
         <f>E28+E29</f>
         <v>347325</v>
       </c>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
       <c r="J30" s="121"/>
     </row>
   </sheetData>
@@ -6819,22 +6822,22 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="22.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +6870,7 @@
       </c>
       <c r="M1" s="119"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6904,7 +6907,7 @@
       </c>
       <c r="M2" s="120"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -6941,7 +6944,7 @@
       </c>
       <c r="M3" s="120"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
@@ -6978,7 +6981,7 @@
       </c>
       <c r="M4" s="120"/>
     </row>
-    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
@@ -7015,7 +7018,7 @@
       </c>
       <c r="M5" s="120"/>
     </row>
-    <row r="6" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="122"/>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -7035,7 +7038,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="122"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -7050,7 +7053,7 @@
       <c r="L7" s="123"/>
       <c r="M7" s="120"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
@@ -7087,7 +7090,7 @@
       </c>
       <c r="M8" s="120"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
@@ -7124,7 +7127,7 @@
       </c>
       <c r="M9" s="120"/>
     </row>
-    <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
@@ -7161,7 +7164,7 @@
       </c>
       <c r="M10" s="120"/>
     </row>
-    <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="122"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -7181,14 +7184,14 @@
         <v>1618.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
       <c r="D12" s="126"/>
       <c r="E12" s="126"/>
       <c r="F12" s="126"/>
-      <c r="G12" s="137"/>
+      <c r="G12" s="134"/>
       <c r="H12" s="82"/>
       <c r="I12" s="124"/>
       <c r="J12" s="124"/>
@@ -7196,7 +7199,7 @@
       <c r="L12" s="126"/>
       <c r="M12" s="120"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>16</v>
       </c>
@@ -7237,7 +7240,7 @@
       </c>
       <c r="M13" s="120"/>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
@@ -7274,7 +7277,7 @@
       </c>
       <c r="M14" s="120"/>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
@@ -7311,7 +7314,7 @@
       </c>
       <c r="M15" s="120"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
@@ -7348,7 +7351,7 @@
       </c>
       <c r="M16" s="120"/>
     </row>
-    <row r="17" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>16</v>
       </c>
@@ -7385,7 +7388,7 @@
       </c>
       <c r="M17" s="120"/>
     </row>
-    <row r="18" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="122"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -7405,7 +7408,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="126"/>
       <c r="C19" s="126"/>
@@ -7420,7 +7423,7 @@
       <c r="L19" s="126"/>
       <c r="M19" s="120"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>17</v>
       </c>
@@ -7457,7 +7460,7 @@
       </c>
       <c r="M20" s="120"/>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>17</v>
       </c>
@@ -7494,7 +7497,7 @@
       </c>
       <c r="M21" s="120"/>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>17</v>
       </c>
@@ -7531,7 +7534,7 @@
       </c>
       <c r="M22" s="120"/>
     </row>
-    <row r="23" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
         <v>17</v>
       </c>
@@ -7568,7 +7571,7 @@
       </c>
       <c r="M23" s="120"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -7588,7 +7591,7 @@
         <v>2247.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="125"/>
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
@@ -7603,19 +7606,19 @@
       <c r="L25" s="126"/>
       <c r="M25" s="120"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="125"/>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129" cm="1">
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="128" cm="1">
         <f t="array" ref="E26">SUM((30)*(I2:I23))</f>
         <v>261450</v>
       </c>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
       <c r="H26" s="126"/>
       <c r="I26" s="126"/>
       <c r="J26" s="126"/>
@@ -7623,19 +7626,19 @@
       <c r="L26" s="126"/>
       <c r="M26" s="120"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="130"/>
+      <c r="B27" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133">
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="131">
         <f>SUM(M24,M18,M11,M6)</f>
         <v>12826.25</v>
       </c>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
       <c r="H27" s="126"/>
       <c r="I27" s="126"/>
       <c r="J27" s="126"/>
@@ -7643,24 +7646,24 @@
       <c r="L27" s="126"/>
       <c r="M27" s="120"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135" t="s">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="132"/>
+      <c r="B28" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136">
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="133">
         <f>E26+E27</f>
         <v>274276.25</v>
       </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
       <c r="M28" s="121"/>
     </row>
   </sheetData>
@@ -7678,16 +7681,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A64E53E-4687-417C-9D55-21469B4B1E62}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.44140625" style="90" customWidth="1"/>
+    <col min="1" max="4" width="20.42578125" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>22</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>26</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>320175</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
         <v>27</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>291135</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>28</v>
       </c>
@@ -7746,7 +7749,7 @@
         <v>347325</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
         <v>29</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>319545</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>30</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>274276.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
         <v>31</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>45268.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>32</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>0.85833372451454404</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>33</v>
       </c>

--- a/Documentos/Tiempo Extra.xlsx
+++ b/Documentos/Tiempo Extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaleb\Documents\GitHub\WSPFRAMES\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F59220A-DEC8-4C4F-A35B-492531C62E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B36706C-2858-44BC-8EEF-EDF568B666C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-13590" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
+    <workbookView xWindow="15252" yWindow="-720" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B139081F-0435-4DA9-802E-C042E3EDBE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="36">
   <si>
     <t>Departamento</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Total por falta de Sistema Mes Febrero</t>
+  </si>
+  <si>
+    <t>Total por falta de Sistema Mes Abril</t>
   </si>
 </sst>
 </file>
@@ -5270,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC5521-4988-4D0D-A028-B369FE76398F}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -6818,8 +6821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8581AE50-5B11-446D-B899-0F87E4792975}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -6879,13 +6882,17 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="11">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
       <c r="H2" s="11">
         <f>SUM(D2:G2)</f>
         <v>8</v>
@@ -6916,13 +6923,17 @@
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="17">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17">
+        <v>2</v>
+      </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H23" si="1">SUM(D3:G3)</f>
         <v>8</v>
@@ -6953,13 +6964,17 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="17">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
       <c r="H4" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7062,13 +7077,17 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="29">
-        <v>5</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="29">
+        <v>3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2</v>
+      </c>
       <c r="H8" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7099,13 +7118,17 @@
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="35">
-        <v>5</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2</v>
+      </c>
+      <c r="G9" s="35">
+        <v>3</v>
+      </c>
       <c r="H9" s="35">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7208,16 +7231,16 @@
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="47">
         <f t="shared" si="1"/>
@@ -7249,13 +7272,17 @@
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="53">
         <v>1</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="F14" s="53">
+        <v>2</v>
+      </c>
+      <c r="G14" s="53">
+        <v>1</v>
+      </c>
       <c r="H14" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7286,13 +7313,17 @@
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="53">
-        <v>5</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="53">
+        <v>2</v>
+      </c>
+      <c r="G15" s="53">
+        <v>3</v>
+      </c>
       <c r="H15" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7323,13 +7354,17 @@
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="53">
-        <v>5</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="53">
+        <v>2</v>
+      </c>
+      <c r="G16" s="53">
+        <v>3</v>
+      </c>
       <c r="H16" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7363,10 +7398,14 @@
         <v>2</v>
       </c>
       <c r="E17" s="59">
-        <v>5</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="59">
+        <v>2</v>
+      </c>
+      <c r="G17" s="59">
+        <v>1</v>
+      </c>
       <c r="H17" s="59">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7432,13 +7471,17 @@
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="65">
         <v>4</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="F20" s="65">
+        <v>1</v>
+      </c>
+      <c r="G20" s="65">
+        <v>1</v>
+      </c>
       <c r="H20" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7469,13 +7512,17 @@
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="71">
         <v>4</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
+      <c r="F21" s="71">
+        <v>1</v>
+      </c>
+      <c r="G21" s="71">
+        <v>1</v>
+      </c>
       <c r="H21" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7629,7 +7676,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="130"/>
       <c r="B27" s="138" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
